--- a/RStudio/First examples/Project/BaseDatosCovid.xlsx
+++ b/RStudio/First examples/Project/BaseDatosCovid.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="282">
   <si>
     <t>Fecha</t>
   </si>
@@ -425,6 +425,27 @@
     <t>133</t>
   </si>
   <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>2020/03/05</t>
   </si>
   <si>
@@ -822,6 +843,21 @@
   </si>
   <si>
     <t>2020/07/15</t>
+  </si>
+  <si>
+    <t>2020/07/16</t>
+  </si>
+  <si>
+    <t>2020/07/17</t>
+  </si>
+  <si>
+    <t>2020/07/18</t>
+  </si>
+  <si>
+    <t>2020/07/19</t>
+  </si>
+  <si>
+    <t>2020/07/20</t>
   </si>
 </sst>
 </file>
@@ -892,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -909,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -926,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -943,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -960,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -977,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -994,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
         <v>13.0</v>
@@ -1011,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n">
         <v>22.0</v>
@@ -1028,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C10" t="n">
         <v>23.0</v>
@@ -1045,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
         <v>26.0</v>
@@ -1062,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C12" t="n">
         <v>27.0</v>
@@ -1079,7 +1115,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C13" t="n">
         <v>35.0</v>
@@ -1096,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C14" t="n">
         <v>41.0</v>
@@ -1113,7 +1149,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C15" t="n">
         <v>50.0</v>
@@ -1130,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C16" t="n">
         <v>69.0</v>
@@ -1147,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C17" t="n">
         <v>89.0</v>
@@ -1164,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
         <v>117.0</v>
@@ -1181,7 +1217,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C19" t="n">
         <v>134.0</v>
@@ -1198,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C20" t="n">
         <v>158.0</v>
@@ -1215,7 +1251,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C21" t="n">
         <v>177.0</v>
@@ -1232,7 +1268,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C22" t="n">
         <v>201.0</v>
@@ -1249,7 +1285,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C23" t="n">
         <v>231.0</v>
@@ -1266,7 +1302,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C24" t="n">
         <v>263.0</v>
@@ -1283,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C25" t="n">
         <v>295.0</v>
@@ -1300,7 +1336,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C26" t="n">
         <v>314.0</v>
@@ -1317,7 +1353,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C27" t="n">
         <v>330.0</v>
@@ -1334,7 +1370,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C28" t="n">
         <v>347.0</v>
@@ -1351,7 +1387,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C29" t="n">
         <v>375.0</v>
@@ -1368,7 +1404,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C30" t="n">
         <v>396.0</v>
@@ -1385,7 +1421,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C31" t="n">
         <v>416.0</v>
@@ -1402,7 +1438,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C32" t="n">
         <v>435.0</v>
@@ -1419,7 +1455,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C33" t="n">
         <v>454.0</v>
@@ -1436,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C34" t="n">
         <v>467.0</v>
@@ -1453,7 +1489,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C35" t="n">
         <v>483.0</v>
@@ -1470,7 +1506,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C36" t="n">
         <v>502.0</v>
@@ -1487,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C37" t="n">
         <v>539.0</v>
@@ -1504,7 +1540,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C38" t="n">
         <v>558.0</v>
@@ -1521,7 +1557,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C39" t="n">
         <v>577.0</v>
@@ -1538,7 +1574,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C40" t="n">
         <v>595.0</v>
@@ -1555,7 +1591,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C41" t="n">
         <v>612.0</v>
@@ -1572,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C42" t="n">
         <v>618.0</v>
@@ -1589,7 +1625,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C43" t="n">
         <v>626.0</v>
@@ -1606,7 +1642,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C44" t="n">
         <v>642.0</v>
@@ -1623,7 +1659,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C45" t="n">
         <v>649.0</v>
@@ -1640,7 +1676,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C46" t="n">
         <v>655.0</v>
@@ -1657,7 +1693,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C47" t="n">
         <v>660.0</v>
@@ -1674,7 +1710,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C48" t="n">
         <v>662.0</v>
@@ -1691,7 +1727,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C49" t="n">
         <v>669.0</v>
@@ -1708,7 +1744,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C50" t="n">
         <v>681.0</v>
@@ -1725,7 +1761,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C51" t="n">
         <v>686.0</v>
@@ -1742,7 +1778,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C52" t="n">
         <v>687.0</v>
@@ -1759,7 +1795,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C53" t="n">
         <v>693.0</v>
@@ -1776,7 +1812,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C54" t="n">
         <v>695.0</v>
@@ -1793,7 +1829,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C55" t="n">
         <v>697.0</v>
@@ -1810,7 +1846,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C56" t="n">
         <v>705.0</v>
@@ -1827,7 +1863,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C57" t="n">
         <v>713.0</v>
@@ -1844,7 +1880,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C58" t="n">
         <v>719.0</v>
@@ -1861,7 +1897,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C59" t="n">
         <v>725.0</v>
@@ -1878,7 +1914,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C60" t="n">
         <v>733.0</v>
@@ -1895,7 +1931,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C61" t="n">
         <v>739.0</v>
@@ -1912,7 +1948,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C62" t="n">
         <v>742.0</v>
@@ -1929,7 +1965,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C63" t="n">
         <v>755.0</v>
@@ -1946,7 +1982,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C64" t="n">
         <v>761.0</v>
@@ -1963,7 +1999,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C65" t="n">
         <v>765.0</v>
@@ -1980,7 +2016,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C66" t="n">
         <v>773.0</v>
@@ -1997,7 +2033,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C67" t="n">
         <v>780.0</v>
@@ -2014,7 +2050,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C68" t="n">
         <v>792.0</v>
@@ -2031,7 +2067,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C69" t="n">
         <v>801.0</v>
@@ -2048,7 +2084,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C70" t="n">
         <v>804.0</v>
@@ -2065,7 +2101,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C71" t="n">
         <v>815.0</v>
@@ -2082,7 +2118,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C72" t="n">
         <v>830.0</v>
@@ -2099,7 +2135,7 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C73" t="n">
         <v>843.0</v>
@@ -2116,7 +2152,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C74" t="n">
         <v>853.0</v>
@@ -2133,7 +2169,7 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C75" t="n">
         <v>863.0</v>
@@ -2150,7 +2186,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C76" t="n">
         <v>866.0</v>
@@ -2167,7 +2203,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C77" t="n">
         <v>882.0</v>
@@ -2184,7 +2220,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C78" t="n">
         <v>897.0</v>
@@ -2201,7 +2237,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C79" t="n">
         <v>903.0</v>
@@ -2218,7 +2254,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C80" t="n">
         <v>911.0</v>
@@ -2235,7 +2271,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C81" t="n">
         <v>918.0</v>
@@ -2252,7 +2288,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C82" t="n">
         <v>930.0</v>
@@ -2269,7 +2305,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C83" t="n">
         <v>951.0</v>
@@ -2286,7 +2322,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C84" t="n">
         <v>956.0</v>
@@ -2303,7 +2339,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C85" t="n">
         <v>984.0</v>
@@ -2320,7 +2356,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C86" t="n">
         <v>1000.0</v>
@@ -2337,7 +2373,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C87" t="n">
         <v>1022.0</v>
@@ -2354,7 +2390,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C88" t="n">
         <v>1047.0</v>
@@ -2371,7 +2407,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C89" t="n">
         <v>1056.0</v>
@@ -2388,7 +2424,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C90" t="n">
         <v>1084.0</v>
@@ -2405,7 +2441,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C91" t="n">
         <v>1105.0</v>
@@ -2422,7 +2458,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C92" t="n">
         <v>1157.0</v>
@@ -2439,7 +2475,7 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C93" t="n">
         <v>1194.0</v>
@@ -2456,7 +2492,7 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C94" t="n">
         <v>1228.0</v>
@@ -2473,7 +2509,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C95" t="n">
         <v>1263.0</v>
@@ -2490,7 +2526,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C96" t="n">
         <v>1318.0</v>
@@ -2507,7 +2543,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C97" t="n">
         <v>1342.0</v>
@@ -2524,7 +2560,7 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C98" t="n">
         <v>1375.0</v>
@@ -2541,7 +2577,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C99" t="n">
         <v>1461.0</v>
@@ -2558,7 +2594,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C100" t="n">
         <v>1538.0</v>
@@ -2575,7 +2611,7 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C101" t="n">
         <v>1612.0</v>
@@ -2592,7 +2628,7 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C102" t="n">
         <v>1662.0</v>
@@ -2609,7 +2645,7 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C103" t="n">
         <v>1715.0</v>
@@ -2626,7 +2662,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C104" t="n">
         <v>1744.0</v>
@@ -2643,7 +2679,7 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C105" t="n">
         <v>1796.0</v>
@@ -2660,7 +2696,7 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C106" t="n">
         <v>1871.0</v>
@@ -2677,7 +2713,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C107" t="n">
         <v>1939.0</v>
@@ -2694,7 +2730,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C108" t="n">
         <v>2058.0</v>
@@ -2711,7 +2747,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C109" t="n">
         <v>2127.0</v>
@@ -2728,7 +2764,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C110" t="n">
         <v>2213.0</v>
@@ -2745,7 +2781,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C111" t="n">
         <v>2277.0</v>
@@ -2762,7 +2798,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C112" t="n">
         <v>2368.0</v>
@@ -2779,7 +2815,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C113" t="n">
         <v>2515.0</v>
@@ -2796,7 +2832,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C114" t="n">
         <v>2684.0</v>
@@ -2813,7 +2849,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C115" t="n">
         <v>2836.0</v>
@@ -2830,7 +2866,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C116" t="n">
         <v>2979.0</v>
@@ -2847,7 +2883,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C117" t="n">
         <v>3130.0</v>
@@ -2864,7 +2900,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C118" t="n">
         <v>3269.0</v>
@@ -2881,7 +2917,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C119" t="n">
         <v>3459.0</v>
@@ -2898,7 +2934,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C120" t="n">
         <v>3753.0</v>
@@ -2915,7 +2951,7 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C121" t="n">
         <v>4023.0</v>
@@ -2932,7 +2968,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C122" t="n">
         <v>4311.0</v>
@@ -2949,7 +2985,7 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C123" t="n">
         <v>4621.0</v>
@@ -2966,7 +3002,7 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C124" t="n">
         <v>4996.0</v>
@@ -2983,7 +3019,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C125" t="n">
         <v>5241.0</v>
@@ -3000,7 +3036,7 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C126" t="n">
         <v>5486.0</v>
@@ -3017,7 +3053,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C127" t="n">
         <v>5836.0</v>
@@ -3034,7 +3070,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C128" t="n">
         <v>6485.0</v>
@@ -3051,7 +3087,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C129" t="n">
         <v>6845.0</v>
@@ -3068,7 +3104,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C130" t="n">
         <v>7231.0</v>
@@ -3085,7 +3121,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C131" t="n">
         <v>7596.0</v>
@@ -3102,7 +3138,7 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C132" t="n">
         <v>8036.0</v>
@@ -3119,7 +3155,7 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C133" t="n">
         <v>8482.0</v>
@@ -3136,7 +3172,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C134" t="n">
         <v>8986.0</v>
@@ -3146,6 +3182,125 @@
       </c>
       <c r="E134" t="n">
         <v>583.46</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" t="n">
+        <v>8986.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>577.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>583.46</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9546.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>578.74</v>
+      </c>
+      <c r="E136" t="n">
+        <v>582.86</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9969.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>578.91</v>
+      </c>
+      <c r="E137" t="n">
+        <v>584.16</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>279</v>
+      </c>
+      <c r="C138" t="n">
+        <v>10551.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>578.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>584.52</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="n">
+        <v>11114.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>578.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>584.52</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140" t="n">
+        <v>11114.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>578.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>584.52</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" t="n">
+        <v>11534.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>578.7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>584.52</v>
       </c>
     </row>
   </sheetData>

--- a/RStudio/First examples/Project/BaseDatosCovid.xlsx
+++ b/RStudio/First examples/Project/BaseDatosCovid.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yordan Garcia Corral\Documents\Ciencia de datos\Practice and projects\trunk\RStudio\First examples\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" r:id="rId3" sheetId="1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="BeforeCovid" r:id="rId5" sheetId="2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="451">
   <si>
     <t>Fecha</t>
   </si>
@@ -446,6 +454,69 @@
     <t>140</t>
   </si>
   <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
     <t>2020/03/05</t>
   </si>
   <si>
@@ -858,16 +929,460 @@
   </si>
   <si>
     <t>2020/07/20</t>
+  </si>
+  <si>
+    <t>2020/07/21</t>
+  </si>
+  <si>
+    <t>2020/07/22</t>
+  </si>
+  <si>
+    <t>2020/07/23</t>
+  </si>
+  <si>
+    <t>2020/07/24</t>
+  </si>
+  <si>
+    <t>2020/07/25</t>
+  </si>
+  <si>
+    <t>2020/07/26</t>
+  </si>
+  <si>
+    <t>2020/07/27</t>
+  </si>
+  <si>
+    <t>2020/07/28</t>
+  </si>
+  <si>
+    <t>2020/07/29</t>
+  </si>
+  <si>
+    <t>2020/07/30</t>
+  </si>
+  <si>
+    <t>2020/07/31</t>
+  </si>
+  <si>
+    <t>2020/08/01</t>
+  </si>
+  <si>
+    <t>2020/08/02</t>
+  </si>
+  <si>
+    <t>2020/08/03</t>
+  </si>
+  <si>
+    <t>2020/08/04</t>
+  </si>
+  <si>
+    <t>2020/08/05</t>
+  </si>
+  <si>
+    <t>2020/08/06</t>
+  </si>
+  <si>
+    <t>2020/08/07</t>
+  </si>
+  <si>
+    <t>2020/08/08</t>
+  </si>
+  <si>
+    <t>2020/08/09</t>
+  </si>
+  <si>
+    <t>2020/08/10</t>
+  </si>
+  <si>
+    <t>2020/08/11</t>
+  </si>
+  <si>
+    <t>2020/08/12</t>
+  </si>
+  <si>
+    <t>2019/11/01</t>
+  </si>
+  <si>
+    <t>2019/11/02</t>
+  </si>
+  <si>
+    <t>2019/11/03</t>
+  </si>
+  <si>
+    <t>2019/11/04</t>
+  </si>
+  <si>
+    <t>2019/11/05</t>
+  </si>
+  <si>
+    <t>2019/11/06</t>
+  </si>
+  <si>
+    <t>2019/11/07</t>
+  </si>
+  <si>
+    <t>2019/11/08</t>
+  </si>
+  <si>
+    <t>2019/11/09</t>
+  </si>
+  <si>
+    <t>2019/11/10</t>
+  </si>
+  <si>
+    <t>2019/11/11</t>
+  </si>
+  <si>
+    <t>2019/11/12</t>
+  </si>
+  <si>
+    <t>2019/11/13</t>
+  </si>
+  <si>
+    <t>2019/11/14</t>
+  </si>
+  <si>
+    <t>2019/11/15</t>
+  </si>
+  <si>
+    <t>2019/11/16</t>
+  </si>
+  <si>
+    <t>2019/11/17</t>
+  </si>
+  <si>
+    <t>2019/11/18</t>
+  </si>
+  <si>
+    <t>2019/11/19</t>
+  </si>
+  <si>
+    <t>2019/11/20</t>
+  </si>
+  <si>
+    <t>2019/11/21</t>
+  </si>
+  <si>
+    <t>2019/11/22</t>
+  </si>
+  <si>
+    <t>2019/11/23</t>
+  </si>
+  <si>
+    <t>2019/11/24</t>
+  </si>
+  <si>
+    <t>2019/11/25</t>
+  </si>
+  <si>
+    <t>2019/11/26</t>
+  </si>
+  <si>
+    <t>2019/11/27</t>
+  </si>
+  <si>
+    <t>2019/11/28</t>
+  </si>
+  <si>
+    <t>2019/11/29</t>
+  </si>
+  <si>
+    <t>2019/11/30</t>
+  </si>
+  <si>
+    <t>2019/12/01</t>
+  </si>
+  <si>
+    <t>2019/12/02</t>
+  </si>
+  <si>
+    <t>2019/12/03</t>
+  </si>
+  <si>
+    <t>2019/12/04</t>
+  </si>
+  <si>
+    <t>2019/12/05</t>
+  </si>
+  <si>
+    <t>2019/12/06</t>
+  </si>
+  <si>
+    <t>2019/12/07</t>
+  </si>
+  <si>
+    <t>2019/12/08</t>
+  </si>
+  <si>
+    <t>2019/12/09</t>
+  </si>
+  <si>
+    <t>2019/12/10</t>
+  </si>
+  <si>
+    <t>2019/12/11</t>
+  </si>
+  <si>
+    <t>2019/12/12</t>
+  </si>
+  <si>
+    <t>2019/12/13</t>
+  </si>
+  <si>
+    <t>2019/12/14</t>
+  </si>
+  <si>
+    <t>2019/12/15</t>
+  </si>
+  <si>
+    <t>2019/12/16</t>
+  </si>
+  <si>
+    <t>2019/12/17</t>
+  </si>
+  <si>
+    <t>2019/12/18</t>
+  </si>
+  <si>
+    <t>2019/12/19</t>
+  </si>
+  <si>
+    <t>2019/12/20</t>
+  </si>
+  <si>
+    <t>2019/12/21</t>
+  </si>
+  <si>
+    <t>2019/12/22</t>
+  </si>
+  <si>
+    <t>2019/12/23</t>
+  </si>
+  <si>
+    <t>2019/12/24</t>
+  </si>
+  <si>
+    <t>2019/12/25</t>
+  </si>
+  <si>
+    <t>2019/12/26</t>
+  </si>
+  <si>
+    <t>2019/12/27</t>
+  </si>
+  <si>
+    <t>2019/12/28</t>
+  </si>
+  <si>
+    <t>2019/12/29</t>
+  </si>
+  <si>
+    <t>2019/12/30</t>
+  </si>
+  <si>
+    <t>2019/12/31</t>
+  </si>
+  <si>
+    <t>2020/01/01</t>
+  </si>
+  <si>
+    <t>2020/01/02</t>
+  </si>
+  <si>
+    <t>2020/01/03</t>
+  </si>
+  <si>
+    <t>2020/01/04</t>
+  </si>
+  <si>
+    <t>2020/01/05</t>
+  </si>
+  <si>
+    <t>2020/01/06</t>
+  </si>
+  <si>
+    <t>2020/01/07</t>
+  </si>
+  <si>
+    <t>2020/01/08</t>
+  </si>
+  <si>
+    <t>2020/01/09</t>
+  </si>
+  <si>
+    <t>2020/01/10</t>
+  </si>
+  <si>
+    <t>2020/01/11</t>
+  </si>
+  <si>
+    <t>2020/01/12</t>
+  </si>
+  <si>
+    <t>2020/01/13</t>
+  </si>
+  <si>
+    <t>2020/01/14</t>
+  </si>
+  <si>
+    <t>2020/01/15</t>
+  </si>
+  <si>
+    <t>2020/01/16</t>
+  </si>
+  <si>
+    <t>2020/01/17</t>
+  </si>
+  <si>
+    <t>2020/01/18</t>
+  </si>
+  <si>
+    <t>2020/01/19</t>
+  </si>
+  <si>
+    <t>2020/01/20</t>
+  </si>
+  <si>
+    <t>2020/01/21</t>
+  </si>
+  <si>
+    <t>2020/01/22</t>
+  </si>
+  <si>
+    <t>2020/01/23</t>
+  </si>
+  <si>
+    <t>2020/01/24</t>
+  </si>
+  <si>
+    <t>2020/01/25</t>
+  </si>
+  <si>
+    <t>2020/01/26</t>
+  </si>
+  <si>
+    <t>2020/01/27</t>
+  </si>
+  <si>
+    <t>2020/01/28</t>
+  </si>
+  <si>
+    <t>2020/01/29</t>
+  </si>
+  <si>
+    <t>2020/01/30</t>
+  </si>
+  <si>
+    <t>2020/01/31</t>
+  </si>
+  <si>
+    <t>2020/02/01</t>
+  </si>
+  <si>
+    <t>2020/02/02</t>
+  </si>
+  <si>
+    <t>2020/02/03</t>
+  </si>
+  <si>
+    <t>2020/02/04</t>
+  </si>
+  <si>
+    <t>2020/02/05</t>
+  </si>
+  <si>
+    <t>2020/02/06</t>
+  </si>
+  <si>
+    <t>2020/02/07</t>
+  </si>
+  <si>
+    <t>2020/02/08</t>
+  </si>
+  <si>
+    <t>2020/02/09</t>
+  </si>
+  <si>
+    <t>2020/02/10</t>
+  </si>
+  <si>
+    <t>2020/02/11</t>
+  </si>
+  <si>
+    <t>2020/02/12</t>
+  </si>
+  <si>
+    <t>2020/02/13</t>
+  </si>
+  <si>
+    <t>2020/02/14</t>
+  </si>
+  <si>
+    <t>2020/02/15</t>
+  </si>
+  <si>
+    <t>2020/02/16</t>
+  </si>
+  <si>
+    <t>2020/02/17</t>
+  </si>
+  <si>
+    <t>2020/02/18</t>
+  </si>
+  <si>
+    <t>2020/02/19</t>
+  </si>
+  <si>
+    <t>2020/02/20</t>
+  </si>
+  <si>
+    <t>2020/02/21</t>
+  </si>
+  <si>
+    <t>2020/02/22</t>
+  </si>
+  <si>
+    <t>2020/02/23</t>
+  </si>
+  <si>
+    <t>2020/02/24</t>
+  </si>
+  <si>
+    <t>2020/02/25</t>
+  </si>
+  <si>
+    <t>2020/02/26</t>
+  </si>
+  <si>
+    <t>2020/02/27</t>
+  </si>
+  <si>
+    <t>2020/02/28</t>
+  </si>
+  <si>
+    <t>2020/02/29</t>
+  </si>
+  <si>
+    <t>2020/03/01</t>
+  </si>
+  <si>
+    <t>2020/03/02</t>
+  </si>
+  <si>
+    <t>2020/03/03</t>
+  </si>
+  <si>
+    <t>2020/03/04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -879,7 +1394,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -897,14 +1412,3052 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>569.61</v>
+      </c>
+      <c r="E2">
+        <v>578.08000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>569.70000000000005</v>
+      </c>
+      <c r="E3">
+        <v>576.57000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>566.21</v>
+      </c>
+      <c r="E4">
+        <v>573.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>566.21</v>
+      </c>
+      <c r="E5">
+        <v>573.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>566.21</v>
+      </c>
+      <c r="E6">
+        <v>573.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>565.13</v>
+      </c>
+      <c r="E7">
+        <v>572.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>564.57000000000005</v>
+      </c>
+      <c r="E8">
+        <v>570.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>561.70000000000005</v>
+      </c>
+      <c r="E9">
+        <v>567.41999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>562.21</v>
+      </c>
+      <c r="E10">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>560.66</v>
+      </c>
+      <c r="E11">
+        <v>567.67999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>560.66</v>
+      </c>
+      <c r="E12">
+        <v>567.67999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>560.66</v>
+      </c>
+      <c r="E13">
+        <v>567.67999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>560.75</v>
+      </c>
+      <c r="E14">
+        <v>568.32000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>563.22</v>
+      </c>
+      <c r="E15">
+        <v>568.70000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16">
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <v>563.38</v>
+      </c>
+      <c r="E16">
+        <v>569.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>564.79999999999995</v>
+      </c>
+      <c r="E17">
+        <v>570.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18">
+        <v>117</v>
+      </c>
+      <c r="D18">
+        <v>565.64</v>
+      </c>
+      <c r="E18">
+        <v>573.55999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19">
+        <v>134</v>
+      </c>
+      <c r="D19">
+        <v>565.64</v>
+      </c>
+      <c r="E19">
+        <v>573.55999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20">
+        <v>158</v>
+      </c>
+      <c r="D20">
+        <v>565.64</v>
+      </c>
+      <c r="E20">
+        <v>573.55999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21">
+        <v>177</v>
+      </c>
+      <c r="D21">
+        <v>569.54</v>
+      </c>
+      <c r="E21">
+        <v>576.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22">
+        <v>201</v>
+      </c>
+      <c r="D22">
+        <v>572.33000000000004</v>
+      </c>
+      <c r="E22">
+        <v>579.70000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23">
+        <v>231</v>
+      </c>
+      <c r="D23">
+        <v>575.41999999999996</v>
+      </c>
+      <c r="E23">
+        <v>582.04999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24">
+        <v>263</v>
+      </c>
+      <c r="D24">
+        <v>577.33000000000004</v>
+      </c>
+      <c r="E24">
+        <v>583.83000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25">
+        <v>295</v>
+      </c>
+      <c r="D25">
+        <v>577.9</v>
+      </c>
+      <c r="E25">
+        <v>585.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26">
+        <v>314</v>
+      </c>
+      <c r="D26">
+        <v>577.9</v>
+      </c>
+      <c r="E26">
+        <v>585.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27">
+        <v>330</v>
+      </c>
+      <c r="D27">
+        <v>577.9</v>
+      </c>
+      <c r="E27">
+        <v>585.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28">
+        <v>347</v>
+      </c>
+      <c r="D28">
+        <v>579.5</v>
+      </c>
+      <c r="E28">
+        <v>587.37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29">
+        <v>375</v>
+      </c>
+      <c r="D29">
+        <v>577.1</v>
+      </c>
+      <c r="E29">
+        <v>583.71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30">
+        <v>396</v>
+      </c>
+      <c r="D30">
+        <v>573.19000000000005</v>
+      </c>
+      <c r="E30">
+        <v>580.08000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31">
+        <v>416</v>
+      </c>
+      <c r="D31">
+        <v>570.94000000000005</v>
+      </c>
+      <c r="E31">
+        <v>577.96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32">
+        <v>435</v>
+      </c>
+      <c r="D32">
+        <v>567.29999999999995</v>
+      </c>
+      <c r="E32">
+        <v>575.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33">
+        <v>454</v>
+      </c>
+      <c r="D33">
+        <v>567.29999999999995</v>
+      </c>
+      <c r="E33">
+        <v>575.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34">
+        <v>467</v>
+      </c>
+      <c r="D34">
+        <v>567.29999999999995</v>
+      </c>
+      <c r="E34">
+        <v>575.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35">
+        <v>483</v>
+      </c>
+      <c r="D35">
+        <v>568.25</v>
+      </c>
+      <c r="E35">
+        <v>574.45000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36">
+        <v>502</v>
+      </c>
+      <c r="D36">
+        <v>568.54999999999995</v>
+      </c>
+      <c r="E36">
+        <v>575.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37">
+        <v>539</v>
+      </c>
+      <c r="D37">
+        <v>568.54999999999995</v>
+      </c>
+      <c r="E37">
+        <v>575.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38">
+        <v>558</v>
+      </c>
+      <c r="D38">
+        <v>568.54999999999995</v>
+      </c>
+      <c r="E38">
+        <v>575.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39">
+        <v>577</v>
+      </c>
+      <c r="D39">
+        <v>568.54999999999995</v>
+      </c>
+      <c r="E39">
+        <v>575.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40">
+        <v>595</v>
+      </c>
+      <c r="D40">
+        <v>568.54999999999995</v>
+      </c>
+      <c r="E40">
+        <v>575.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41">
+        <v>612</v>
+      </c>
+      <c r="D41">
+        <v>568.54999999999995</v>
+      </c>
+      <c r="E41">
+        <v>575.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42">
+        <v>618</v>
+      </c>
+      <c r="D42">
+        <v>566.35</v>
+      </c>
+      <c r="E42">
+        <v>573.07000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43">
+        <v>626</v>
+      </c>
+      <c r="D43">
+        <v>564.13</v>
+      </c>
+      <c r="E43">
+        <v>569.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44">
+        <v>642</v>
+      </c>
+      <c r="D44">
+        <v>561.28</v>
+      </c>
+      <c r="E44">
+        <v>567.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45">
+        <v>649</v>
+      </c>
+      <c r="D45">
+        <v>559.65</v>
+      </c>
+      <c r="E45">
+        <v>565.54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46">
+        <v>655</v>
+      </c>
+      <c r="D46">
+        <v>558.99</v>
+      </c>
+      <c r="E46">
+        <v>565.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47">
+        <v>660</v>
+      </c>
+      <c r="D47">
+        <v>558.99</v>
+      </c>
+      <c r="E47">
+        <v>565.11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48">
+        <v>662</v>
+      </c>
+      <c r="D48">
+        <v>558.99</v>
+      </c>
+      <c r="E48">
+        <v>565.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49">
+        <v>669</v>
+      </c>
+      <c r="D49">
+        <v>562.97</v>
+      </c>
+      <c r="E49">
+        <v>569.17999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50">
+        <v>681</v>
+      </c>
+      <c r="D50">
+        <v>564.29</v>
+      </c>
+      <c r="E50">
+        <v>571.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51">
+        <v>686</v>
+      </c>
+      <c r="D51">
+        <v>564.67999999999995</v>
+      </c>
+      <c r="E51">
+        <v>571.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52">
+        <v>687</v>
+      </c>
+      <c r="D52">
+        <v>564.38</v>
+      </c>
+      <c r="E52">
+        <v>569.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53">
+        <v>693</v>
+      </c>
+      <c r="D53">
+        <v>562.92999999999995</v>
+      </c>
+      <c r="E53">
+        <v>570.07000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54">
+        <v>695</v>
+      </c>
+      <c r="D54">
+        <v>562.92999999999995</v>
+      </c>
+      <c r="E54">
+        <v>570.07000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55">
+        <v>697</v>
+      </c>
+      <c r="D55">
+        <v>562.92999999999995</v>
+      </c>
+      <c r="E55">
+        <v>570.07000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56">
+        <v>705</v>
+      </c>
+      <c r="D56">
+        <v>563.35</v>
+      </c>
+      <c r="E56">
+        <v>569.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57">
+        <v>713</v>
+      </c>
+      <c r="D57">
+        <v>564.88</v>
+      </c>
+      <c r="E57">
+        <v>571.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58">
+        <v>719</v>
+      </c>
+      <c r="D58">
+        <v>564.41999999999996</v>
+      </c>
+      <c r="E58">
+        <v>571.46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59">
+        <v>725</v>
+      </c>
+      <c r="D59">
+        <v>565.24</v>
+      </c>
+      <c r="E59">
+        <v>571.91999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60">
+        <v>733</v>
+      </c>
+      <c r="D60">
+        <v>565.24</v>
+      </c>
+      <c r="E60">
+        <v>571.91999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61">
+        <v>739</v>
+      </c>
+      <c r="D61">
+        <v>565.24</v>
+      </c>
+      <c r="E61">
+        <v>571.91999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62">
+        <v>742</v>
+      </c>
+      <c r="D62">
+        <v>565.24</v>
+      </c>
+      <c r="E62">
+        <v>571.91999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63">
+        <v>755</v>
+      </c>
+      <c r="D63">
+        <v>564.80999999999995</v>
+      </c>
+      <c r="E63">
+        <v>572.41999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64">
+        <v>761</v>
+      </c>
+      <c r="D64">
+        <v>565.57000000000005</v>
+      </c>
+      <c r="E64">
+        <v>572.70000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65">
+        <v>765</v>
+      </c>
+      <c r="D65">
+        <v>565.04</v>
+      </c>
+      <c r="E65">
+        <v>571.91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66">
+        <v>773</v>
+      </c>
+      <c r="D66">
+        <v>565.82000000000005</v>
+      </c>
+      <c r="E66">
+        <v>571.97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67">
+        <v>780</v>
+      </c>
+      <c r="D67">
+        <v>565.29999999999995</v>
+      </c>
+      <c r="E67">
+        <v>572.03</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68">
+        <v>792</v>
+      </c>
+      <c r="D68">
+        <v>565.29999999999995</v>
+      </c>
+      <c r="E68">
+        <v>572.03</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69">
+        <v>801</v>
+      </c>
+      <c r="D69">
+        <v>565.29999999999995</v>
+      </c>
+      <c r="E69">
+        <v>572.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70">
+        <v>804</v>
+      </c>
+      <c r="D70">
+        <v>565.48</v>
+      </c>
+      <c r="E70">
+        <v>572.35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71">
+        <v>815</v>
+      </c>
+      <c r="D71">
+        <v>566.32000000000005</v>
+      </c>
+      <c r="E71">
+        <v>571.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72">
+        <v>830</v>
+      </c>
+      <c r="D72">
+        <v>566.42999999999995</v>
+      </c>
+      <c r="E72">
+        <v>571.82000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73">
+        <v>843</v>
+      </c>
+      <c r="D73">
+        <v>566.13</v>
+      </c>
+      <c r="E73">
+        <v>571.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74">
+        <v>853</v>
+      </c>
+      <c r="D74">
+        <v>565.48</v>
+      </c>
+      <c r="E74">
+        <v>572.39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75">
+        <v>863</v>
+      </c>
+      <c r="D75">
+        <v>565.48</v>
+      </c>
+      <c r="E75">
+        <v>572.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76">
+        <v>866</v>
+      </c>
+      <c r="D76">
+        <v>565.48</v>
+      </c>
+      <c r="E76">
+        <v>572.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77">
+        <v>882</v>
+      </c>
+      <c r="D77">
+        <v>566.57000000000005</v>
+      </c>
+      <c r="E77">
+        <v>573.39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78">
+        <v>897</v>
+      </c>
+      <c r="D78">
+        <v>567.07000000000005</v>
+      </c>
+      <c r="E78">
+        <v>574.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79">
+        <v>903</v>
+      </c>
+      <c r="D79">
+        <v>567.66999999999996</v>
+      </c>
+      <c r="E79">
+        <v>574.72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80">
+        <v>911</v>
+      </c>
+      <c r="D80">
+        <v>566.87</v>
+      </c>
+      <c r="E80">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81">
+        <v>918</v>
+      </c>
+      <c r="D81">
+        <v>566.57000000000005</v>
+      </c>
+      <c r="E81">
+        <v>573.67999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82">
+        <v>930</v>
+      </c>
+      <c r="D82">
+        <v>566.57000000000005</v>
+      </c>
+      <c r="E82">
+        <v>573.67999999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83">
+        <v>951</v>
+      </c>
+      <c r="D83">
+        <v>566.57000000000005</v>
+      </c>
+      <c r="E83">
+        <v>573.67999999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84">
+        <v>956</v>
+      </c>
+      <c r="D84">
+        <v>568.19000000000005</v>
+      </c>
+      <c r="E84">
+        <v>574.07000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85">
+        <v>984</v>
+      </c>
+      <c r="D85">
+        <v>567.62</v>
+      </c>
+      <c r="E85">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86">
+        <v>1000</v>
+      </c>
+      <c r="D86">
+        <v>570.64</v>
+      </c>
+      <c r="E86">
+        <v>575.20000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87">
+        <v>1022</v>
+      </c>
+      <c r="D87">
+        <v>569.46</v>
+      </c>
+      <c r="E87">
+        <v>576.11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88">
+        <v>1047</v>
+      </c>
+      <c r="D88">
+        <v>570.22</v>
+      </c>
+      <c r="E88">
+        <v>576.92999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89">
+        <v>1056</v>
+      </c>
+      <c r="D89">
+        <v>570.22</v>
+      </c>
+      <c r="E89">
+        <v>576.92999999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90">
+        <v>1084</v>
+      </c>
+      <c r="D90">
+        <v>570.22</v>
+      </c>
+      <c r="E90">
+        <v>576.92999999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91">
+        <v>1105</v>
+      </c>
+      <c r="D91">
+        <v>571.29</v>
+      </c>
+      <c r="E91">
+        <v>579.35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92">
+        <v>1157</v>
+      </c>
+      <c r="D92">
+        <v>573.19000000000005</v>
+      </c>
+      <c r="E92">
+        <v>581.02</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93">
+        <v>1194</v>
+      </c>
+      <c r="D93">
+        <v>574.66</v>
+      </c>
+      <c r="E93">
+        <v>582.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94">
+        <v>1228</v>
+      </c>
+      <c r="D94">
+        <v>573.67999999999995</v>
+      </c>
+      <c r="E94">
+        <v>582.45000000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95">
+        <v>1263</v>
+      </c>
+      <c r="D95">
+        <v>574.99</v>
+      </c>
+      <c r="E95">
+        <v>582.87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96">
+        <v>1318</v>
+      </c>
+      <c r="D96">
+        <v>574.99</v>
+      </c>
+      <c r="E96">
+        <v>582.87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>260</v>
+      </c>
+      <c r="C97">
+        <v>1342</v>
+      </c>
+      <c r="D97">
+        <v>574.99</v>
+      </c>
+      <c r="E97">
+        <v>582.87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98">
+        <v>1375</v>
+      </c>
+      <c r="D98">
+        <v>575.70000000000005</v>
+      </c>
+      <c r="E98">
+        <v>583.72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99">
+        <v>1461</v>
+      </c>
+      <c r="D99">
+        <v>577.25</v>
+      </c>
+      <c r="E99">
+        <v>584.02</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>263</v>
+      </c>
+      <c r="C100">
+        <v>1538</v>
+      </c>
+      <c r="D100">
+        <v>576.9</v>
+      </c>
+      <c r="E100">
+        <v>583.14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>264</v>
+      </c>
+      <c r="C101">
+        <v>1612</v>
+      </c>
+      <c r="D101">
+        <v>574.5</v>
+      </c>
+      <c r="E101">
+        <v>580.61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C102">
+        <v>1662</v>
+      </c>
+      <c r="D102">
+        <v>571.41999999999996</v>
+      </c>
+      <c r="E102">
+        <v>578.83000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>266</v>
+      </c>
+      <c r="C103">
+        <v>1715</v>
+      </c>
+      <c r="D103">
+        <v>571.41999999999996</v>
+      </c>
+      <c r="E103">
+        <v>578.83000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>267</v>
+      </c>
+      <c r="C104">
+        <v>1744</v>
+      </c>
+      <c r="D104">
+        <v>571.41999999999996</v>
+      </c>
+      <c r="E104">
+        <v>578.83000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105">
+        <v>1796</v>
+      </c>
+      <c r="D105">
+        <v>571.04</v>
+      </c>
+      <c r="E105">
+        <v>577.88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106">
+        <v>1871</v>
+      </c>
+      <c r="D106">
+        <v>571.33000000000004</v>
+      </c>
+      <c r="E106">
+        <v>577.79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107">
+        <v>1939</v>
+      </c>
+      <c r="D107">
+        <v>573.23</v>
+      </c>
+      <c r="E107">
+        <v>579.17999999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>271</v>
+      </c>
+      <c r="C108">
+        <v>2058</v>
+      </c>
+      <c r="D108">
+        <v>574.26</v>
+      </c>
+      <c r="E108">
+        <v>579.62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>272</v>
+      </c>
+      <c r="C109">
+        <v>2127</v>
+      </c>
+      <c r="D109">
+        <v>570.26</v>
+      </c>
+      <c r="E109">
+        <v>579.72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>273</v>
+      </c>
+      <c r="C110">
+        <v>2213</v>
+      </c>
+      <c r="D110">
+        <v>570.26</v>
+      </c>
+      <c r="E110">
+        <v>579.72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>274</v>
+      </c>
+      <c r="C111">
+        <v>2277</v>
+      </c>
+      <c r="D111">
+        <v>570.26</v>
+      </c>
+      <c r="E111">
+        <v>579.72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>275</v>
+      </c>
+      <c r="C112">
+        <v>2368</v>
+      </c>
+      <c r="D112">
+        <v>574.05999999999995</v>
+      </c>
+      <c r="E112">
+        <v>580.13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>276</v>
+      </c>
+      <c r="C113">
+        <v>2515</v>
+      </c>
+      <c r="D113">
+        <v>573.30999999999995</v>
+      </c>
+      <c r="E113">
+        <v>580.86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>277</v>
+      </c>
+      <c r="C114">
+        <v>2684</v>
+      </c>
+      <c r="D114">
+        <v>576.33000000000004</v>
+      </c>
+      <c r="E114">
+        <v>582.26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>278</v>
+      </c>
+      <c r="C115">
+        <v>2836</v>
+      </c>
+      <c r="D115">
+        <v>576.83000000000004</v>
+      </c>
+      <c r="E115">
+        <v>582.91999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>279</v>
+      </c>
+      <c r="C116">
+        <v>2979</v>
+      </c>
+      <c r="D116">
+        <v>577.49</v>
+      </c>
+      <c r="E116">
+        <v>583.66999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>280</v>
+      </c>
+      <c r="C117">
+        <v>3130</v>
+      </c>
+      <c r="D117">
+        <v>577.49</v>
+      </c>
+      <c r="E117">
+        <v>583.66999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>281</v>
+      </c>
+      <c r="C118">
+        <v>3269</v>
+      </c>
+      <c r="D118">
+        <v>577.49</v>
+      </c>
+      <c r="E118">
+        <v>583.66999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119">
+        <v>3459</v>
+      </c>
+      <c r="D119">
+        <v>577.51</v>
+      </c>
+      <c r="E119">
+        <v>583.49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120">
+        <v>3753</v>
+      </c>
+      <c r="D120">
+        <v>579.01</v>
+      </c>
+      <c r="E120">
+        <v>584.96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>284</v>
+      </c>
+      <c r="C121">
+        <v>4023</v>
+      </c>
+      <c r="D121">
+        <v>579.27</v>
+      </c>
+      <c r="E121">
+        <v>586.23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122">
+        <v>4311</v>
+      </c>
+      <c r="D122">
+        <v>577.05999999999995</v>
+      </c>
+      <c r="E122">
+        <v>586.21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>286</v>
+      </c>
+      <c r="C123">
+        <v>4621</v>
+      </c>
+      <c r="D123">
+        <v>577.65</v>
+      </c>
+      <c r="E123">
+        <v>585.34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>287</v>
+      </c>
+      <c r="C124">
+        <v>4996</v>
+      </c>
+      <c r="D124">
+        <v>577.65</v>
+      </c>
+      <c r="E124">
+        <v>585.34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>288</v>
+      </c>
+      <c r="C125">
+        <v>5241</v>
+      </c>
+      <c r="D125">
+        <v>577.65</v>
+      </c>
+      <c r="E125">
+        <v>585.34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>289</v>
+      </c>
+      <c r="C126">
+        <v>5486</v>
+      </c>
+      <c r="D126">
+        <v>577.51</v>
+      </c>
+      <c r="E126">
+        <v>585.79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>290</v>
+      </c>
+      <c r="C127">
+        <v>5836</v>
+      </c>
+      <c r="D127">
+        <v>578.08000000000004</v>
+      </c>
+      <c r="E127">
+        <v>585.19000000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>291</v>
+      </c>
+      <c r="C128">
+        <v>6485</v>
+      </c>
+      <c r="D128">
+        <v>579.20000000000005</v>
+      </c>
+      <c r="E128">
+        <v>584.96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>292</v>
+      </c>
+      <c r="C129">
+        <v>6845</v>
+      </c>
+      <c r="D129">
+        <v>578.26</v>
+      </c>
+      <c r="E129">
+        <v>585.19000000000005</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>293</v>
+      </c>
+      <c r="C130">
+        <v>7231</v>
+      </c>
+      <c r="D130">
+        <v>579</v>
+      </c>
+      <c r="E130">
+        <v>584.65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>294</v>
+      </c>
+      <c r="C131">
+        <v>7596</v>
+      </c>
+      <c r="D131">
+        <v>579</v>
+      </c>
+      <c r="E131">
+        <v>584.65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>295</v>
+      </c>
+      <c r="C132">
+        <v>8036</v>
+      </c>
+      <c r="D132">
+        <v>579</v>
+      </c>
+      <c r="E132">
+        <v>584.65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>296</v>
+      </c>
+      <c r="C133">
+        <v>8482</v>
+      </c>
+      <c r="D133">
+        <v>577.84</v>
+      </c>
+      <c r="E133">
+        <v>584.54999999999995</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134">
+        <v>8986</v>
+      </c>
+      <c r="D134">
+        <v>577.5</v>
+      </c>
+      <c r="E134">
+        <v>583.46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135">
+        <v>9546</v>
+      </c>
+      <c r="D135">
+        <v>578.74</v>
+      </c>
+      <c r="E135">
+        <v>582.86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>299</v>
+      </c>
+      <c r="C136">
+        <v>9969</v>
+      </c>
+      <c r="D136">
+        <v>578.91</v>
+      </c>
+      <c r="E136">
+        <v>584.16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>300</v>
+      </c>
+      <c r="C137">
+        <v>10551</v>
+      </c>
+      <c r="D137">
+        <v>578.70000000000005</v>
+      </c>
+      <c r="E137">
+        <v>584.52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>301</v>
+      </c>
+      <c r="C138">
+        <v>11114</v>
+      </c>
+      <c r="D138">
+        <v>578.70000000000005</v>
+      </c>
+      <c r="E138">
+        <v>584.52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>302</v>
+      </c>
+      <c r="C139">
+        <v>11534</v>
+      </c>
+      <c r="D139">
+        <v>578.70000000000005</v>
+      </c>
+      <c r="E139">
+        <v>584.52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>303</v>
+      </c>
+      <c r="C140">
+        <v>11811</v>
+      </c>
+      <c r="D140">
+        <v>576.47</v>
+      </c>
+      <c r="E140">
+        <v>584.94000000000005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141">
+        <v>12361</v>
+      </c>
+      <c r="D141">
+        <v>576.73</v>
+      </c>
+      <c r="E141">
+        <v>585.21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>305</v>
+      </c>
+      <c r="C142">
+        <v>13129</v>
+      </c>
+      <c r="D142">
+        <v>579.78</v>
+      </c>
+      <c r="E142">
+        <v>585.62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143">
+        <v>13669</v>
+      </c>
+      <c r="D143">
+        <v>579.6</v>
+      </c>
+      <c r="E143">
+        <v>586.01</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>307</v>
+      </c>
+      <c r="C144">
+        <v>14600</v>
+      </c>
+      <c r="D144">
+        <v>579.69000000000005</v>
+      </c>
+      <c r="E144">
+        <v>586.27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145">
+        <v>15229</v>
+      </c>
+      <c r="D145">
+        <v>579.69000000000005</v>
+      </c>
+      <c r="E145">
+        <v>586.27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146">
+        <v>15841</v>
+      </c>
+      <c r="D146">
+        <v>579.69000000000005</v>
+      </c>
+      <c r="E146">
+        <v>586.27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>310</v>
+      </c>
+      <c r="C147">
+        <v>16344</v>
+      </c>
+      <c r="D147">
+        <v>579.69000000000005</v>
+      </c>
+      <c r="E147">
+        <v>586.27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148">
+        <v>16800</v>
+      </c>
+      <c r="D148">
+        <v>580.49</v>
+      </c>
+      <c r="E148">
+        <v>586.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>312</v>
+      </c>
+      <c r="C149">
+        <v>17290</v>
+      </c>
+      <c r="D149">
+        <v>580.51</v>
+      </c>
+      <c r="E149">
+        <v>586.91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>313</v>
+      </c>
+      <c r="C150">
+        <v>17820</v>
+      </c>
+      <c r="D150">
+        <v>582.15</v>
+      </c>
+      <c r="E150">
+        <v>588.33000000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>314</v>
+      </c>
+      <c r="C151">
+        <v>18187</v>
+      </c>
+      <c r="D151">
+        <v>582.41</v>
+      </c>
+      <c r="E151">
+        <v>590.74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152">
+        <v>18975</v>
+      </c>
+      <c r="D152">
+        <v>582.41</v>
+      </c>
+      <c r="E152">
+        <v>590.74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>316</v>
+      </c>
+      <c r="C153">
+        <v>19402</v>
+      </c>
+      <c r="D153">
+        <v>582.41</v>
+      </c>
+      <c r="E153">
+        <v>590.74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154">
+        <v>19837</v>
+      </c>
+      <c r="D154">
+        <v>584.23</v>
+      </c>
+      <c r="E154">
+        <v>592.22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>318</v>
+      </c>
+      <c r="C155">
+        <v>20417</v>
+      </c>
+      <c r="D155">
+        <v>586.65</v>
+      </c>
+      <c r="E155">
+        <v>594.44000000000005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>319</v>
+      </c>
+      <c r="C156">
+        <v>21070</v>
+      </c>
+      <c r="D156">
+        <v>588.12</v>
+      </c>
+      <c r="E156">
+        <v>595.21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157">
+        <v>22081</v>
+      </c>
+      <c r="D157">
+        <v>588.70000000000005</v>
+      </c>
+      <c r="E157">
+        <v>596.16999999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>321</v>
+      </c>
+      <c r="C158">
+        <v>22802</v>
+      </c>
+      <c r="D158">
+        <v>588.22</v>
+      </c>
+      <c r="E158">
+        <v>595.91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>322</v>
+      </c>
+      <c r="C159">
+        <v>23286</v>
+      </c>
+      <c r="D159">
+        <v>588.22</v>
+      </c>
+      <c r="E159">
+        <v>595.91</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>323</v>
+      </c>
+      <c r="C160">
+        <v>23872</v>
+      </c>
+      <c r="D160">
+        <v>588.22</v>
+      </c>
+      <c r="E160">
+        <v>595.91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161">
+        <v>24508</v>
+      </c>
+      <c r="D161">
+        <v>590.69000000000005</v>
+      </c>
+      <c r="E161">
+        <v>598.21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162">
+        <v>25057</v>
+      </c>
+      <c r="D162">
+        <v>592.54</v>
+      </c>
+      <c r="E162">
+        <v>599.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -914,12 +4467,9 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -928,16 +4478,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>581.05</v>
       </c>
       <c r="D2" t="n">
-        <v>569.61</v>
-      </c>
-      <c r="E2" t="n">
-        <v>578.08</v>
+        <v>585.89</v>
       </c>
     </row>
     <row r="3">
@@ -945,16 +4492,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>580.34</v>
       </c>
       <c r="D3" t="n">
-        <v>569.7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>576.57</v>
+        <v>587.5</v>
       </c>
     </row>
     <row r="4">
@@ -962,16 +4506,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>328</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>580.34</v>
       </c>
       <c r="D4" t="n">
-        <v>566.21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>573.35</v>
+        <v>587.5</v>
       </c>
     </row>
     <row r="5">
@@ -979,16 +4520,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>329</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>580.34</v>
       </c>
       <c r="D5" t="n">
-        <v>566.21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>573.35</v>
+        <v>587.5</v>
       </c>
     </row>
     <row r="6">
@@ -996,16 +4534,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="C6" t="n">
-        <v>9.0</v>
+        <v>578.86</v>
       </c>
       <c r="D6" t="n">
-        <v>566.21</v>
-      </c>
-      <c r="E6" t="n">
-        <v>573.35</v>
+        <v>587.75</v>
       </c>
     </row>
     <row r="7">
@@ -1013,16 +4548,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="C7" t="n">
-        <v>9.0</v>
+        <v>581.08</v>
       </c>
       <c r="D7" t="n">
-        <v>565.13</v>
-      </c>
-      <c r="E7" t="n">
-        <v>572.37</v>
+        <v>587.94</v>
       </c>
     </row>
     <row r="8">
@@ -1030,16 +4562,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>332</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0</v>
+        <v>581.66</v>
       </c>
       <c r="D8" t="n">
-        <v>564.57</v>
-      </c>
-      <c r="E8" t="n">
-        <v>570.25</v>
+        <v>588.06</v>
       </c>
     </row>
     <row r="9">
@@ -1047,16 +4576,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0</v>
+        <v>581.61</v>
       </c>
       <c r="D9" t="n">
-        <v>561.7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>567.42</v>
+        <v>586.18</v>
       </c>
     </row>
     <row r="10">
@@ -1064,16 +4590,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="C10" t="n">
-        <v>23.0</v>
+        <v>579.76</v>
       </c>
       <c r="D10" t="n">
-        <v>562.21</v>
-      </c>
-      <c r="E10" t="n">
-        <v>568.0</v>
+        <v>586.21</v>
       </c>
     </row>
     <row r="11">
@@ -1081,16 +4604,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="C11" t="n">
-        <v>26.0</v>
+        <v>579.76</v>
       </c>
       <c r="D11" t="n">
-        <v>560.66</v>
-      </c>
-      <c r="E11" t="n">
-        <v>567.68</v>
+        <v>586.21</v>
       </c>
     </row>
     <row r="12">
@@ -1098,16 +4618,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0</v>
+        <v>579.76</v>
       </c>
       <c r="D12" t="n">
-        <v>560.66</v>
-      </c>
-      <c r="E12" t="n">
-        <v>567.68</v>
+        <v>586.21</v>
       </c>
     </row>
     <row r="13">
@@ -1115,16 +4632,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>337</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0</v>
+        <v>578.69</v>
       </c>
       <c r="D13" t="n">
-        <v>560.66</v>
-      </c>
-      <c r="E13" t="n">
-        <v>567.68</v>
+        <v>585.86</v>
       </c>
     </row>
     <row r="14">
@@ -1132,16 +4646,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>338</v>
       </c>
       <c r="C14" t="n">
-        <v>41.0</v>
+        <v>577.98</v>
       </c>
       <c r="D14" t="n">
-        <v>560.75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>568.32</v>
+        <v>584.69</v>
       </c>
     </row>
     <row r="15">
@@ -1149,16 +4660,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="C15" t="n">
-        <v>50.0</v>
+        <v>577.49</v>
       </c>
       <c r="D15" t="n">
-        <v>563.22</v>
-      </c>
-      <c r="E15" t="n">
-        <v>568.7</v>
+        <v>583.26</v>
       </c>
     </row>
     <row r="16">
@@ -1166,16 +4674,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>340</v>
       </c>
       <c r="C16" t="n">
-        <v>69.0</v>
+        <v>576.19</v>
       </c>
       <c r="D16" t="n">
-        <v>563.38</v>
-      </c>
-      <c r="E16" t="n">
-        <v>569.74</v>
+        <v>582.36</v>
       </c>
     </row>
     <row r="17">
@@ -1183,16 +4688,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>341</v>
       </c>
       <c r="C17" t="n">
-        <v>89.0</v>
+        <v>573.76</v>
       </c>
       <c r="D17" t="n">
-        <v>564.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>570.64</v>
+        <v>579.99</v>
       </c>
     </row>
     <row r="18">
@@ -1200,16 +4702,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>342</v>
       </c>
       <c r="C18" t="n">
-        <v>117.0</v>
+        <v>573.76</v>
       </c>
       <c r="D18" t="n">
-        <v>565.64</v>
-      </c>
-      <c r="E18" t="n">
-        <v>573.56</v>
+        <v>579.99</v>
       </c>
     </row>
     <row r="19">
@@ -1217,16 +4716,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="C19" t="n">
-        <v>134.0</v>
+        <v>573.76</v>
       </c>
       <c r="D19" t="n">
-        <v>565.64</v>
-      </c>
-      <c r="E19" t="n">
-        <v>573.56</v>
+        <v>579.99</v>
       </c>
     </row>
     <row r="20">
@@ -1234,16 +4730,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>344</v>
       </c>
       <c r="C20" t="n">
-        <v>158.0</v>
+        <v>570.97</v>
       </c>
       <c r="D20" t="n">
-        <v>565.64</v>
-      </c>
-      <c r="E20" t="n">
-        <v>573.56</v>
+        <v>578.48</v>
       </c>
     </row>
     <row r="21">
@@ -1251,16 +4744,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>345</v>
       </c>
       <c r="C21" t="n">
-        <v>177.0</v>
+        <v>569.76</v>
       </c>
       <c r="D21" t="n">
-        <v>569.54</v>
-      </c>
-      <c r="E21" t="n">
-        <v>576.98</v>
+        <v>576.44</v>
       </c>
     </row>
     <row r="22">
@@ -1268,16 +4758,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>346</v>
       </c>
       <c r="C22" t="n">
-        <v>201.0</v>
+        <v>569.74</v>
       </c>
       <c r="D22" t="n">
-        <v>572.33</v>
-      </c>
-      <c r="E22" t="n">
-        <v>579.7</v>
+        <v>576.71</v>
       </c>
     </row>
     <row r="23">
@@ -1285,16 +4772,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>347</v>
       </c>
       <c r="C23" t="n">
-        <v>231.0</v>
+        <v>568.17</v>
       </c>
       <c r="D23" t="n">
-        <v>575.42</v>
-      </c>
-      <c r="E23" t="n">
-        <v>582.05</v>
+        <v>573.72</v>
       </c>
     </row>
     <row r="24">
@@ -1302,16 +4786,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>348</v>
       </c>
       <c r="C24" t="n">
-        <v>263.0</v>
+        <v>565.43</v>
       </c>
       <c r="D24" t="n">
-        <v>577.33</v>
-      </c>
-      <c r="E24" t="n">
-        <v>583.83</v>
+        <v>571.8</v>
       </c>
     </row>
     <row r="25">
@@ -1319,16 +4800,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>349</v>
       </c>
       <c r="C25" t="n">
-        <v>295.0</v>
+        <v>565.43</v>
       </c>
       <c r="D25" t="n">
-        <v>577.9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>585.5</v>
+        <v>571.8</v>
       </c>
     </row>
     <row r="26">
@@ -1336,16 +4814,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C26" t="n">
-        <v>314.0</v>
+        <v>565.43</v>
       </c>
       <c r="D26" t="n">
-        <v>577.9</v>
-      </c>
-      <c r="E26" t="n">
-        <v>585.5</v>
+        <v>571.8</v>
       </c>
     </row>
     <row r="27">
@@ -1353,16 +4828,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="C27" t="n">
-        <v>330.0</v>
+        <v>562.54</v>
       </c>
       <c r="D27" t="n">
-        <v>577.9</v>
-      </c>
-      <c r="E27" t="n">
-        <v>585.5</v>
+        <v>571.23</v>
       </c>
     </row>
     <row r="28">
@@ -1370,16 +4842,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="C28" t="n">
-        <v>347.0</v>
+        <v>561.57</v>
       </c>
       <c r="D28" t="n">
-        <v>579.5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>587.37</v>
+        <v>567.77</v>
       </c>
     </row>
     <row r="29">
@@ -1387,16 +4856,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>353</v>
       </c>
       <c r="C29" t="n">
-        <v>375.0</v>
+        <v>560.45</v>
       </c>
       <c r="D29" t="n">
-        <v>577.1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>583.71</v>
+        <v>566.37</v>
       </c>
     </row>
     <row r="30">
@@ -1404,16 +4870,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>354</v>
       </c>
       <c r="C30" t="n">
-        <v>396.0</v>
+        <v>559.83</v>
       </c>
       <c r="D30" t="n">
-        <v>573.19</v>
-      </c>
-      <c r="E30" t="n">
-        <v>580.08</v>
+        <v>566.56</v>
       </c>
     </row>
     <row r="31">
@@ -1421,16 +4884,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="C31" t="n">
-        <v>416.0</v>
+        <v>558.9</v>
       </c>
       <c r="D31" t="n">
-        <v>570.94</v>
-      </c>
-      <c r="E31" t="n">
-        <v>577.96</v>
+        <v>565.89</v>
       </c>
     </row>
     <row r="32">
@@ -1438,16 +4898,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
       <c r="C32" t="n">
-        <v>435.0</v>
+        <v>558.9</v>
       </c>
       <c r="D32" t="n">
-        <v>567.3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>575.49</v>
+        <v>565.89</v>
       </c>
     </row>
     <row r="33">
@@ -1455,16 +4912,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>357</v>
       </c>
       <c r="C33" t="n">
-        <v>454.0</v>
+        <v>558.9</v>
       </c>
       <c r="D33" t="n">
-        <v>567.3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>575.49</v>
+        <v>565.89</v>
       </c>
     </row>
     <row r="34">
@@ -1472,16 +4926,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>358</v>
       </c>
       <c r="C34" t="n">
-        <v>467.0</v>
+        <v>560.22</v>
       </c>
       <c r="D34" t="n">
-        <v>567.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>575.49</v>
+        <v>567.65</v>
       </c>
     </row>
     <row r="35">
@@ -1489,16 +4940,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>359</v>
       </c>
       <c r="C35" t="n">
-        <v>483.0</v>
+        <v>563.53</v>
       </c>
       <c r="D35" t="n">
-        <v>568.25</v>
-      </c>
-      <c r="E35" t="n">
-        <v>574.45</v>
+        <v>572.01</v>
       </c>
     </row>
     <row r="36">
@@ -1506,16 +4954,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>360</v>
       </c>
       <c r="C36" t="n">
-        <v>502.0</v>
+        <v>563.99</v>
       </c>
       <c r="D36" t="n">
-        <v>568.55</v>
-      </c>
-      <c r="E36" t="n">
-        <v>575.12</v>
+        <v>571.81</v>
       </c>
     </row>
     <row r="37">
@@ -1523,16 +4968,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>361</v>
       </c>
       <c r="C37" t="n">
-        <v>539.0</v>
+        <v>566.91</v>
       </c>
       <c r="D37" t="n">
-        <v>568.55</v>
-      </c>
-      <c r="E37" t="n">
-        <v>575.12</v>
+        <v>573.19</v>
       </c>
     </row>
     <row r="38">
@@ -1540,16 +4982,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>362</v>
       </c>
       <c r="C38" t="n">
-        <v>558.0</v>
+        <v>565.08</v>
       </c>
       <c r="D38" t="n">
-        <v>568.55</v>
-      </c>
-      <c r="E38" t="n">
-        <v>575.12</v>
+        <v>572.22</v>
       </c>
     </row>
     <row r="39">
@@ -1557,16 +4996,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>181</v>
+        <v>363</v>
       </c>
       <c r="C39" t="n">
-        <v>577.0</v>
+        <v>565.08</v>
       </c>
       <c r="D39" t="n">
-        <v>568.55</v>
-      </c>
-      <c r="E39" t="n">
-        <v>575.12</v>
+        <v>572.22</v>
       </c>
     </row>
     <row r="40">
@@ -1574,16 +5010,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="C40" t="n">
-        <v>595.0</v>
+        <v>565.08</v>
       </c>
       <c r="D40" t="n">
-        <v>568.55</v>
-      </c>
-      <c r="E40" t="n">
-        <v>575.12</v>
+        <v>572.22</v>
       </c>
     </row>
     <row r="41">
@@ -1591,16 +5024,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>365</v>
       </c>
       <c r="C41" t="n">
-        <v>612.0</v>
+        <v>565.59</v>
       </c>
       <c r="D41" t="n">
-        <v>568.55</v>
-      </c>
-      <c r="E41" t="n">
-        <v>575.12</v>
+        <v>572.08</v>
       </c>
     </row>
     <row r="42">
@@ -1608,16 +5038,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="C42" t="n">
-        <v>618.0</v>
+        <v>567.59</v>
       </c>
       <c r="D42" t="n">
-        <v>566.35</v>
-      </c>
-      <c r="E42" t="n">
-        <v>573.07</v>
+        <v>573.52</v>
       </c>
     </row>
     <row r="43">
@@ -1625,16 +5052,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>185</v>
+        <v>367</v>
       </c>
       <c r="C43" t="n">
-        <v>626.0</v>
+        <v>567.6</v>
       </c>
       <c r="D43" t="n">
-        <v>564.13</v>
-      </c>
-      <c r="E43" t="n">
-        <v>569.29</v>
+        <v>574.59</v>
       </c>
     </row>
     <row r="44">
@@ -1642,16 +5066,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>368</v>
       </c>
       <c r="C44" t="n">
-        <v>642.0</v>
+        <v>566.61</v>
       </c>
       <c r="D44" t="n">
-        <v>561.28</v>
-      </c>
-      <c r="E44" t="n">
-        <v>567.52</v>
+        <v>572.52</v>
       </c>
     </row>
     <row r="45">
@@ -1659,16 +5080,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="C45" t="n">
-        <v>649.0</v>
+        <v>563.73</v>
       </c>
       <c r="D45" t="n">
-        <v>559.65</v>
-      </c>
-      <c r="E45" t="n">
-        <v>565.54</v>
+        <v>570.76</v>
       </c>
     </row>
     <row r="46">
@@ -1676,16 +5094,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>370</v>
       </c>
       <c r="C46" t="n">
-        <v>655.0</v>
+        <v>563.73</v>
       </c>
       <c r="D46" t="n">
-        <v>558.99</v>
-      </c>
-      <c r="E46" t="n">
-        <v>565.11</v>
+        <v>570.76</v>
       </c>
     </row>
     <row r="47">
@@ -1693,16 +5108,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="C47" t="n">
-        <v>660.0</v>
+        <v>563.73</v>
       </c>
       <c r="D47" t="n">
-        <v>558.99</v>
-      </c>
-      <c r="E47" t="n">
-        <v>565.11</v>
+        <v>570.76</v>
       </c>
     </row>
     <row r="48">
@@ -1710,16 +5122,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>372</v>
       </c>
       <c r="C48" t="n">
-        <v>662.0</v>
+        <v>562.33</v>
       </c>
       <c r="D48" t="n">
-        <v>558.99</v>
-      </c>
-      <c r="E48" t="n">
-        <v>565.11</v>
+        <v>570.05</v>
       </c>
     </row>
     <row r="49">
@@ -1727,16 +5136,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>373</v>
       </c>
       <c r="C49" t="n">
-        <v>669.0</v>
+        <v>562.52</v>
       </c>
       <c r="D49" t="n">
-        <v>562.97</v>
-      </c>
-      <c r="E49" t="n">
-        <v>569.18</v>
+        <v>569.16</v>
       </c>
     </row>
     <row r="50">
@@ -1744,16 +5150,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="C50" t="n">
-        <v>681.0</v>
+        <v>563.65</v>
       </c>
       <c r="D50" t="n">
-        <v>564.29</v>
-      </c>
-      <c r="E50" t="n">
-        <v>571.9</v>
+        <v>569.29</v>
       </c>
     </row>
     <row r="51">
@@ -1761,16 +5164,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>375</v>
       </c>
       <c r="C51" t="n">
-        <v>686.0</v>
+        <v>562.52</v>
       </c>
       <c r="D51" t="n">
-        <v>564.68</v>
-      </c>
-      <c r="E51" t="n">
-        <v>571.09</v>
+        <v>569.89</v>
       </c>
     </row>
     <row r="52">
@@ -1778,16 +5178,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>376</v>
       </c>
       <c r="C52" t="n">
-        <v>687.0</v>
+        <v>563.21</v>
       </c>
       <c r="D52" t="n">
-        <v>564.38</v>
-      </c>
-      <c r="E52" t="n">
-        <v>569.03</v>
+        <v>569.57</v>
       </c>
     </row>
     <row r="53">
@@ -1795,16 +5192,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>377</v>
       </c>
       <c r="C53" t="n">
-        <v>693.0</v>
+        <v>563.21</v>
       </c>
       <c r="D53" t="n">
-        <v>562.93</v>
-      </c>
-      <c r="E53" t="n">
-        <v>570.07</v>
+        <v>569.57</v>
       </c>
     </row>
     <row r="54">
@@ -1812,16 +5206,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>378</v>
       </c>
       <c r="C54" t="n">
-        <v>695.0</v>
+        <v>563.21</v>
       </c>
       <c r="D54" t="n">
-        <v>562.93</v>
-      </c>
-      <c r="E54" t="n">
-        <v>570.07</v>
+        <v>569.57</v>
       </c>
     </row>
     <row r="55">
@@ -1829,16 +5220,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>379</v>
       </c>
       <c r="C55" t="n">
-        <v>697.0</v>
+        <v>564.72</v>
       </c>
       <c r="D55" t="n">
-        <v>562.93</v>
-      </c>
-      <c r="E55" t="n">
-        <v>570.07</v>
+        <v>571.81</v>
       </c>
     </row>
     <row r="56">
@@ -1846,16 +5234,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>380</v>
       </c>
       <c r="C56" t="n">
-        <v>705.0</v>
+        <v>568.49</v>
       </c>
       <c r="D56" t="n">
-        <v>563.35</v>
-      </c>
-      <c r="E56" t="n">
-        <v>569.75</v>
+        <v>574.93</v>
       </c>
     </row>
     <row r="57">
@@ -1863,16 +5248,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>381</v>
       </c>
       <c r="C57" t="n">
-        <v>713.0</v>
+        <v>568.49</v>
       </c>
       <c r="D57" t="n">
-        <v>564.88</v>
-      </c>
-      <c r="E57" t="n">
-        <v>571.09</v>
+        <v>574.93</v>
       </c>
     </row>
     <row r="58">
@@ -1880,16 +5262,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>382</v>
       </c>
       <c r="C58" t="n">
-        <v>719.0</v>
+        <v>569.34</v>
       </c>
       <c r="D58" t="n">
-        <v>564.42</v>
-      </c>
-      <c r="E58" t="n">
-        <v>571.46</v>
+        <v>575.66</v>
       </c>
     </row>
     <row r="59">
@@ -1897,16 +5276,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>383</v>
       </c>
       <c r="C59" t="n">
-        <v>725.0</v>
+        <v>569.93</v>
       </c>
       <c r="D59" t="n">
-        <v>565.24</v>
-      </c>
-      <c r="E59" t="n">
-        <v>571.92</v>
+        <v>575.56</v>
       </c>
     </row>
     <row r="60">
@@ -1914,16 +5290,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>384</v>
       </c>
       <c r="C60" t="n">
-        <v>733.0</v>
+        <v>569.93</v>
       </c>
       <c r="D60" t="n">
-        <v>565.24</v>
-      </c>
-      <c r="E60" t="n">
-        <v>571.92</v>
+        <v>575.56</v>
       </c>
     </row>
     <row r="61">
@@ -1931,16 +5304,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>385</v>
       </c>
       <c r="C61" t="n">
-        <v>739.0</v>
+        <v>569.93</v>
       </c>
       <c r="D61" t="n">
-        <v>565.24</v>
-      </c>
-      <c r="E61" t="n">
-        <v>571.92</v>
+        <v>575.56</v>
       </c>
     </row>
     <row r="62">
@@ -1948,16 +5318,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>386</v>
       </c>
       <c r="C62" t="n">
-        <v>742.0</v>
+        <v>570.09</v>
       </c>
       <c r="D62" t="n">
-        <v>565.24</v>
-      </c>
-      <c r="E62" t="n">
-        <v>571.92</v>
+        <v>576.49</v>
       </c>
     </row>
     <row r="63">
@@ -1965,16 +5332,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>387</v>
       </c>
       <c r="C63" t="n">
-        <v>755.0</v>
+        <v>570.09</v>
       </c>
       <c r="D63" t="n">
-        <v>564.81</v>
-      </c>
-      <c r="E63" t="n">
-        <v>572.42</v>
+        <v>576.49</v>
       </c>
     </row>
     <row r="64">
@@ -1982,16 +5346,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>388</v>
       </c>
       <c r="C64" t="n">
-        <v>761.0</v>
+        <v>570.09</v>
       </c>
       <c r="D64" t="n">
-        <v>565.57</v>
-      </c>
-      <c r="E64" t="n">
-        <v>572.7</v>
+        <v>576.49</v>
       </c>
     </row>
     <row r="65">
@@ -1999,16 +5360,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>389</v>
       </c>
       <c r="C65" t="n">
-        <v>765.0</v>
+        <v>569.5</v>
       </c>
       <c r="D65" t="n">
-        <v>565.04</v>
-      </c>
-      <c r="E65" t="n">
-        <v>571.91</v>
+        <v>576.3</v>
       </c>
     </row>
     <row r="66">
@@ -2016,16 +5374,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>390</v>
       </c>
       <c r="C66" t="n">
-        <v>773.0</v>
+        <v>569.37</v>
       </c>
       <c r="D66" t="n">
-        <v>565.82</v>
-      </c>
-      <c r="E66" t="n">
-        <v>571.97</v>
+        <v>576.24</v>
       </c>
     </row>
     <row r="67">
@@ -2033,16 +5388,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>391</v>
       </c>
       <c r="C67" t="n">
-        <v>780.0</v>
+        <v>569.37</v>
       </c>
       <c r="D67" t="n">
-        <v>565.3</v>
-      </c>
-      <c r="E67" t="n">
-        <v>572.03</v>
+        <v>576.24</v>
       </c>
     </row>
     <row r="68">
@@ -2050,16 +5402,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>392</v>
       </c>
       <c r="C68" t="n">
-        <v>792.0</v>
+        <v>569.37</v>
       </c>
       <c r="D68" t="n">
-        <v>565.3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>572.03</v>
+        <v>576.24</v>
       </c>
     </row>
     <row r="69">
@@ -2067,16 +5416,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>393</v>
       </c>
       <c r="C69" t="n">
-        <v>801.0</v>
+        <v>567.47</v>
       </c>
       <c r="D69" t="n">
-        <v>565.3</v>
-      </c>
-      <c r="E69" t="n">
-        <v>572.03</v>
+        <v>576.37</v>
       </c>
     </row>
     <row r="70">
@@ -2084,16 +5430,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>394</v>
       </c>
       <c r="C70" t="n">
-        <v>804.0</v>
+        <v>569.58</v>
       </c>
       <c r="D70" t="n">
-        <v>565.48</v>
-      </c>
-      <c r="E70" t="n">
-        <v>572.35</v>
+        <v>576.72</v>
       </c>
     </row>
     <row r="71">
@@ -2101,16 +5444,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>395</v>
       </c>
       <c r="C71" t="n">
-        <v>815.0</v>
+        <v>569.47</v>
       </c>
       <c r="D71" t="n">
-        <v>566.32</v>
-      </c>
-      <c r="E71" t="n">
-        <v>571.6</v>
+        <v>576.74</v>
       </c>
     </row>
     <row r="72">
@@ -2118,16 +5458,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>396</v>
       </c>
       <c r="C72" t="n">
-        <v>830.0</v>
+        <v>569.84</v>
       </c>
       <c r="D72" t="n">
-        <v>566.43</v>
-      </c>
-      <c r="E72" t="n">
-        <v>571.82</v>
+        <v>576.49</v>
       </c>
     </row>
     <row r="73">
@@ -2135,16 +5472,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>397</v>
       </c>
       <c r="C73" t="n">
-        <v>843.0</v>
+        <v>568.61</v>
       </c>
       <c r="D73" t="n">
-        <v>566.13</v>
-      </c>
-      <c r="E73" t="n">
-        <v>571.76</v>
+        <v>575.93</v>
       </c>
     </row>
     <row r="74">
@@ -2152,16 +5486,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>398</v>
       </c>
       <c r="C74" t="n">
-        <v>853.0</v>
+        <v>568.61</v>
       </c>
       <c r="D74" t="n">
-        <v>565.48</v>
-      </c>
-      <c r="E74" t="n">
-        <v>572.39</v>
+        <v>575.93</v>
       </c>
     </row>
     <row r="75">
@@ -2169,16 +5500,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>399</v>
       </c>
       <c r="C75" t="n">
-        <v>863.0</v>
+        <v>568.61</v>
       </c>
       <c r="D75" t="n">
-        <v>565.48</v>
-      </c>
-      <c r="E75" t="n">
-        <v>572.39</v>
+        <v>575.93</v>
       </c>
     </row>
     <row r="76">
@@ -2186,16 +5514,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>218</v>
+        <v>400</v>
       </c>
       <c r="C76" t="n">
-        <v>866.0</v>
+        <v>566.59</v>
       </c>
       <c r="D76" t="n">
-        <v>565.48</v>
-      </c>
-      <c r="E76" t="n">
-        <v>572.39</v>
+        <v>573.34</v>
       </c>
     </row>
     <row r="77">
@@ -2203,16 +5528,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>401</v>
       </c>
       <c r="C77" t="n">
-        <v>882.0</v>
+        <v>565.82</v>
       </c>
       <c r="D77" t="n">
-        <v>566.57</v>
-      </c>
-      <c r="E77" t="n">
-        <v>573.39</v>
+        <v>572.01</v>
       </c>
     </row>
     <row r="78">
@@ -2220,16 +5542,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>220</v>
+        <v>402</v>
       </c>
       <c r="C78" t="n">
-        <v>897.0</v>
+        <v>564.67</v>
       </c>
       <c r="D78" t="n">
-        <v>567.07</v>
-      </c>
-      <c r="E78" t="n">
-        <v>574.5</v>
+        <v>570.74</v>
       </c>
     </row>
     <row r="79">
@@ -2237,16 +5556,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>403</v>
       </c>
       <c r="C79" t="n">
-        <v>903.0</v>
+        <v>563.37</v>
       </c>
       <c r="D79" t="n">
-        <v>567.67</v>
-      </c>
-      <c r="E79" t="n">
-        <v>574.72</v>
+        <v>569.43</v>
       </c>
     </row>
     <row r="80">
@@ -2254,16 +5570,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>404</v>
       </c>
       <c r="C80" t="n">
-        <v>911.0</v>
+        <v>561.47</v>
       </c>
       <c r="D80" t="n">
-        <v>566.87</v>
-      </c>
-      <c r="E80" t="n">
-        <v>574.0</v>
+        <v>568.43</v>
       </c>
     </row>
     <row r="81">
@@ -2271,16 +5584,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="C81" t="n">
-        <v>918.0</v>
+        <v>561.47</v>
       </c>
       <c r="D81" t="n">
-        <v>566.57</v>
-      </c>
-      <c r="E81" t="n">
-        <v>573.68</v>
+        <v>568.43</v>
       </c>
     </row>
     <row r="82">
@@ -2288,16 +5598,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="C82" t="n">
-        <v>930.0</v>
+        <v>561.47</v>
       </c>
       <c r="D82" t="n">
-        <v>566.57</v>
-      </c>
-      <c r="E82" t="n">
-        <v>573.68</v>
+        <v>568.43</v>
       </c>
     </row>
     <row r="83">
@@ -2305,16 +5612,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>407</v>
       </c>
       <c r="C83" t="n">
-        <v>951.0</v>
+        <v>561.54</v>
       </c>
       <c r="D83" t="n">
-        <v>566.57</v>
-      </c>
-      <c r="E83" t="n">
-        <v>573.68</v>
+        <v>568.42</v>
       </c>
     </row>
     <row r="84">
@@ -2322,16 +5626,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>408</v>
       </c>
       <c r="C84" t="n">
-        <v>956.0</v>
+        <v>563.46</v>
       </c>
       <c r="D84" t="n">
-        <v>568.19</v>
-      </c>
-      <c r="E84" t="n">
-        <v>574.07</v>
+        <v>570.32</v>
       </c>
     </row>
     <row r="85">
@@ -2339,16 +5640,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>409</v>
       </c>
       <c r="C85" t="n">
-        <v>984.0</v>
+        <v>565.35</v>
       </c>
       <c r="D85" t="n">
-        <v>567.62</v>
-      </c>
-      <c r="E85" t="n">
-        <v>575.0</v>
+        <v>572.03</v>
       </c>
     </row>
     <row r="86">
@@ -2356,16 +5654,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>228</v>
+        <v>410</v>
       </c>
       <c r="C86" t="n">
-        <v>1000.0</v>
+        <v>567.19</v>
       </c>
       <c r="D86" t="n">
-        <v>570.64</v>
-      </c>
-      <c r="E86" t="n">
-        <v>575.2</v>
+        <v>573.61</v>
       </c>
     </row>
     <row r="87">
@@ -2373,16 +5668,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>411</v>
       </c>
       <c r="C87" t="n">
-        <v>1022.0</v>
+        <v>566.44</v>
       </c>
       <c r="D87" t="n">
-        <v>569.46</v>
-      </c>
-      <c r="E87" t="n">
-        <v>576.11</v>
+        <v>573.51</v>
       </c>
     </row>
     <row r="88">
@@ -2390,16 +5682,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>412</v>
       </c>
       <c r="C88" t="n">
-        <v>1047.0</v>
+        <v>566.44</v>
       </c>
       <c r="D88" t="n">
-        <v>570.22</v>
-      </c>
-      <c r="E88" t="n">
-        <v>576.93</v>
+        <v>573.51</v>
       </c>
     </row>
     <row r="89">
@@ -2407,16 +5696,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>413</v>
       </c>
       <c r="C89" t="n">
-        <v>1056.0</v>
+        <v>566.44</v>
       </c>
       <c r="D89" t="n">
-        <v>570.22</v>
-      </c>
-      <c r="E89" t="n">
-        <v>576.93</v>
+        <v>573.51</v>
       </c>
     </row>
     <row r="90">
@@ -2424,16 +5710,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
       <c r="C90" t="n">
-        <v>1084.0</v>
+        <v>565.53</v>
       </c>
       <c r="D90" t="n">
-        <v>570.22</v>
-      </c>
-      <c r="E90" t="n">
-        <v>576.93</v>
+        <v>573.13</v>
       </c>
     </row>
     <row r="91">
@@ -2441,16 +5724,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
       <c r="C91" t="n">
-        <v>1105.0</v>
+        <v>566.55</v>
       </c>
       <c r="D91" t="n">
-        <v>571.29</v>
-      </c>
-      <c r="E91" t="n">
-        <v>579.35</v>
+        <v>572.64</v>
       </c>
     </row>
     <row r="92">
@@ -2458,16 +5738,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>234</v>
+        <v>416</v>
       </c>
       <c r="C92" t="n">
-        <v>1157.0</v>
+        <v>567.26</v>
       </c>
       <c r="D92" t="n">
-        <v>573.19</v>
-      </c>
-      <c r="E92" t="n">
-        <v>581.02</v>
+        <v>573.08</v>
       </c>
     </row>
     <row r="93">
@@ -2475,16 +5752,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>417</v>
       </c>
       <c r="C93" t="n">
-        <v>1194.0</v>
+        <v>567.06</v>
       </c>
       <c r="D93" t="n">
-        <v>574.66</v>
-      </c>
-      <c r="E93" t="n">
-        <v>582.02</v>
+        <v>573.36</v>
       </c>
     </row>
     <row r="94">
@@ -2492,16 +5766,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>418</v>
       </c>
       <c r="C94" t="n">
-        <v>1228.0</v>
+        <v>566.38</v>
       </c>
       <c r="D94" t="n">
-        <v>573.68</v>
-      </c>
-      <c r="E94" t="n">
-        <v>582.45</v>
+        <v>573.61</v>
       </c>
     </row>
     <row r="95">
@@ -2509,16 +5780,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>419</v>
       </c>
       <c r="C95" t="n">
-        <v>1263.0</v>
+        <v>566.38</v>
       </c>
       <c r="D95" t="n">
-        <v>574.99</v>
-      </c>
-      <c r="E95" t="n">
-        <v>582.87</v>
+        <v>573.61</v>
       </c>
     </row>
     <row r="96">
@@ -2526,16 +5794,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>420</v>
       </c>
       <c r="C96" t="n">
-        <v>1318.0</v>
+        <v>566.38</v>
       </c>
       <c r="D96" t="n">
-        <v>574.99</v>
-      </c>
-      <c r="E96" t="n">
-        <v>582.87</v>
+        <v>573.61</v>
       </c>
     </row>
     <row r="97">
@@ -2543,16 +5808,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>421</v>
       </c>
       <c r="C97" t="n">
-        <v>1342.0</v>
+        <v>567.47</v>
       </c>
       <c r="D97" t="n">
-        <v>574.99</v>
-      </c>
-      <c r="E97" t="n">
-        <v>582.87</v>
+        <v>576.12</v>
       </c>
     </row>
     <row r="98">
@@ -2560,16 +5822,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>422</v>
       </c>
       <c r="C98" t="n">
-        <v>1375.0</v>
+        <v>571.5</v>
       </c>
       <c r="D98" t="n">
-        <v>575.7</v>
-      </c>
-      <c r="E98" t="n">
-        <v>583.72</v>
+        <v>578.69</v>
       </c>
     </row>
     <row r="99">
@@ -2577,16 +5836,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>423</v>
       </c>
       <c r="C99" t="n">
-        <v>1461.0</v>
+        <v>572.7</v>
       </c>
       <c r="D99" t="n">
-        <v>577.25</v>
-      </c>
-      <c r="E99" t="n">
-        <v>584.02</v>
+        <v>578.64</v>
       </c>
     </row>
     <row r="100">
@@ -2594,16 +5850,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>424</v>
       </c>
       <c r="C100" t="n">
-        <v>1538.0</v>
+        <v>572.69</v>
       </c>
       <c r="D100" t="n">
-        <v>576.9</v>
-      </c>
-      <c r="E100" t="n">
-        <v>583.14</v>
+        <v>579.34</v>
       </c>
     </row>
     <row r="101">
@@ -2611,16 +5864,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>425</v>
       </c>
       <c r="C101" t="n">
-        <v>1612.0</v>
+        <v>570.4</v>
       </c>
       <c r="D101" t="n">
-        <v>574.5</v>
-      </c>
-      <c r="E101" t="n">
-        <v>580.61</v>
+        <v>577.83</v>
       </c>
     </row>
     <row r="102">
@@ -2628,16 +5878,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>426</v>
       </c>
       <c r="C102" t="n">
-        <v>1662.0</v>
+        <v>570.4</v>
       </c>
       <c r="D102" t="n">
-        <v>571.42</v>
-      </c>
-      <c r="E102" t="n">
-        <v>578.83</v>
+        <v>577.83</v>
       </c>
     </row>
     <row r="103">
@@ -2645,16 +5892,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>427</v>
       </c>
       <c r="C103" t="n">
-        <v>1715.0</v>
+        <v>570.4</v>
       </c>
       <c r="D103" t="n">
-        <v>571.42</v>
-      </c>
-      <c r="E103" t="n">
-        <v>578.83</v>
+        <v>577.83</v>
       </c>
     </row>
     <row r="104">
@@ -2662,16 +5906,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>246</v>
+        <v>428</v>
       </c>
       <c r="C104" t="n">
-        <v>1744.0</v>
+        <v>568.5</v>
       </c>
       <c r="D104" t="n">
-        <v>571.42</v>
-      </c>
-      <c r="E104" t="n">
-        <v>578.83</v>
+        <v>576.3</v>
       </c>
     </row>
     <row r="105">
@@ -2679,16 +5920,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>429</v>
       </c>
       <c r="C105" t="n">
-        <v>1796.0</v>
+        <v>568.17</v>
       </c>
       <c r="D105" t="n">
-        <v>571.04</v>
-      </c>
-      <c r="E105" t="n">
-        <v>577.88</v>
+        <v>574.43</v>
       </c>
     </row>
     <row r="106">
@@ -2696,16 +5934,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>430</v>
       </c>
       <c r="C106" t="n">
-        <v>1871.0</v>
+        <v>566.8</v>
       </c>
       <c r="D106" t="n">
-        <v>571.33</v>
-      </c>
-      <c r="E106" t="n">
-        <v>577.79</v>
+        <v>572.52</v>
       </c>
     </row>
     <row r="107">
@@ -2713,16 +5948,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>431</v>
       </c>
       <c r="C107" t="n">
-        <v>1939.0</v>
+        <v>565.61</v>
       </c>
       <c r="D107" t="n">
-        <v>573.23</v>
-      </c>
-      <c r="E107" t="n">
-        <v>579.18</v>
+        <v>571.22</v>
       </c>
     </row>
     <row r="108">
@@ -2730,16 +5962,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>432</v>
       </c>
       <c r="C108" t="n">
-        <v>2058.0</v>
+        <v>563.98</v>
       </c>
       <c r="D108" t="n">
-        <v>574.26</v>
-      </c>
-      <c r="E108" t="n">
-        <v>579.62</v>
+        <v>570.33</v>
       </c>
     </row>
     <row r="109">
@@ -2747,16 +5976,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>251</v>
+        <v>433</v>
       </c>
       <c r="C109" t="n">
-        <v>2127.0</v>
+        <v>563.98</v>
       </c>
       <c r="D109" t="n">
-        <v>570.26</v>
-      </c>
-      <c r="E109" t="n">
-        <v>579.72</v>
+        <v>570.33</v>
       </c>
     </row>
     <row r="110">
@@ -2764,16 +5990,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>434</v>
       </c>
       <c r="C110" t="n">
-        <v>2213.0</v>
+        <v>563.98</v>
       </c>
       <c r="D110" t="n">
-        <v>570.26</v>
-      </c>
-      <c r="E110" t="n">
-        <v>579.72</v>
+        <v>570.33</v>
       </c>
     </row>
     <row r="111">
@@ -2781,16 +6004,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>435</v>
       </c>
       <c r="C111" t="n">
-        <v>2277.0</v>
+        <v>564.12</v>
       </c>
       <c r="D111" t="n">
-        <v>570.26</v>
-      </c>
-      <c r="E111" t="n">
-        <v>579.72</v>
+        <v>571.63</v>
       </c>
     </row>
     <row r="112">
@@ -2798,16 +6018,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
+        <v>436</v>
       </c>
       <c r="C112" t="n">
-        <v>2368.0</v>
+        <v>566.03</v>
       </c>
       <c r="D112" t="n">
-        <v>574.06</v>
-      </c>
-      <c r="E112" t="n">
-        <v>580.13</v>
+        <v>573.02</v>
       </c>
     </row>
     <row r="113">
@@ -2815,16 +6032,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
+        <v>437</v>
       </c>
       <c r="C113" t="n">
-        <v>2515.0</v>
+        <v>567.06</v>
       </c>
       <c r="D113" t="n">
-        <v>573.31</v>
-      </c>
-      <c r="E113" t="n">
-        <v>580.86</v>
+        <v>574.93</v>
       </c>
     </row>
     <row r="114">
@@ -2832,16 +6046,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>256</v>
+        <v>438</v>
       </c>
       <c r="C114" t="n">
-        <v>2684.0</v>
+        <v>569.08</v>
       </c>
       <c r="D114" t="n">
-        <v>576.33</v>
-      </c>
-      <c r="E114" t="n">
-        <v>582.26</v>
+        <v>575.34</v>
       </c>
     </row>
     <row r="115">
@@ -2849,16 +6060,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>257</v>
+        <v>439</v>
       </c>
       <c r="C115" t="n">
-        <v>2836.0</v>
+        <v>569.46</v>
       </c>
       <c r="D115" t="n">
-        <v>576.83</v>
-      </c>
-      <c r="E115" t="n">
-        <v>582.92</v>
+        <v>575.93</v>
       </c>
     </row>
     <row r="116">
@@ -2866,16 +6074,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>258</v>
+        <v>440</v>
       </c>
       <c r="C116" t="n">
-        <v>2979.0</v>
+        <v>569.46</v>
       </c>
       <c r="D116" t="n">
-        <v>577.49</v>
-      </c>
-      <c r="E116" t="n">
-        <v>583.67</v>
+        <v>575.93</v>
       </c>
     </row>
     <row r="117">
@@ -2883,16 +6088,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="C117" t="n">
-        <v>3130.0</v>
+        <v>569.46</v>
       </c>
       <c r="D117" t="n">
-        <v>577.49</v>
-      </c>
-      <c r="E117" t="n">
-        <v>583.67</v>
+        <v>575.93</v>
       </c>
     </row>
     <row r="118">
@@ -2900,16 +6102,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>260</v>
+        <v>442</v>
       </c>
       <c r="C118" t="n">
-        <v>3269.0</v>
+        <v>568.77</v>
       </c>
       <c r="D118" t="n">
-        <v>577.49</v>
-      </c>
-      <c r="E118" t="n">
-        <v>583.67</v>
+        <v>575.03</v>
       </c>
     </row>
     <row r="119">
@@ -2917,16 +6116,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>261</v>
+        <v>443</v>
       </c>
       <c r="C119" t="n">
-        <v>3459.0</v>
+        <v>568.63</v>
       </c>
       <c r="D119" t="n">
-        <v>577.51</v>
-      </c>
-      <c r="E119" t="n">
-        <v>583.49</v>
+        <v>574.68</v>
       </c>
     </row>
     <row r="120">
@@ -2934,16 +6130,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
+        <v>444</v>
       </c>
       <c r="C120" t="n">
-        <v>3753.0</v>
+        <v>567.15</v>
       </c>
       <c r="D120" t="n">
-        <v>579.01</v>
-      </c>
-      <c r="E120" t="n">
-        <v>584.96</v>
+        <v>572.68</v>
       </c>
     </row>
     <row r="121">
@@ -2951,16 +6144,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>263</v>
+        <v>445</v>
       </c>
       <c r="C121" t="n">
-        <v>4023.0</v>
+        <v>565.84</v>
       </c>
       <c r="D121" t="n">
-        <v>579.27</v>
-      </c>
-      <c r="E121" t="n">
-        <v>586.23</v>
+        <v>571.54</v>
       </c>
     </row>
     <row r="122">
@@ -2968,16 +6158,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
+        <v>446</v>
       </c>
       <c r="C122" t="n">
-        <v>4311.0</v>
+        <v>565.87</v>
       </c>
       <c r="D122" t="n">
-        <v>577.06</v>
-      </c>
-      <c r="E122" t="n">
-        <v>586.21</v>
+        <v>572.33</v>
       </c>
     </row>
     <row r="123">
@@ -2985,16 +6172,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>265</v>
+        <v>447</v>
       </c>
       <c r="C123" t="n">
-        <v>4621.0</v>
+        <v>565.87</v>
       </c>
       <c r="D123" t="n">
-        <v>577.65</v>
-      </c>
-      <c r="E123" t="n">
-        <v>585.34</v>
+        <v>572.33</v>
       </c>
     </row>
     <row r="124">
@@ -3002,16 +6186,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>266</v>
+        <v>448</v>
       </c>
       <c r="C124" t="n">
-        <v>4996.0</v>
+        <v>565.87</v>
       </c>
       <c r="D124" t="n">
-        <v>577.65</v>
-      </c>
-      <c r="E124" t="n">
-        <v>585.34</v>
+        <v>572.33</v>
       </c>
     </row>
     <row r="125">
@@ -3019,16 +6200,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>267</v>
+        <v>449</v>
       </c>
       <c r="C125" t="n">
-        <v>5241.0</v>
+        <v>566.37</v>
       </c>
       <c r="D125" t="n">
-        <v>577.65</v>
-      </c>
-      <c r="E125" t="n">
-        <v>585.34</v>
+        <v>574.39</v>
       </c>
     </row>
     <row r="126">
@@ -3036,16 +6214,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>268</v>
+        <v>450</v>
       </c>
       <c r="C126" t="n">
-        <v>5486.0</v>
+        <v>569.08</v>
       </c>
       <c r="D126" t="n">
-        <v>577.51</v>
-      </c>
-      <c r="E126" t="n">
-        <v>585.79</v>
+        <v>576.37</v>
       </c>
     </row>
     <row r="127">
@@ -3053,254 +6228,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="C127" t="n">
-        <v>5836.0</v>
+        <v>569.61</v>
       </c>
       <c r="D127" t="n">
         <v>578.08</v>
-      </c>
-      <c r="E127" t="n">
-        <v>585.19</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" t="s">
-        <v>270</v>
-      </c>
-      <c r="C128" t="n">
-        <v>6485.0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>579.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>584.96</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" t="s">
-        <v>271</v>
-      </c>
-      <c r="C129" t="n">
-        <v>6845.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>578.26</v>
-      </c>
-      <c r="E129" t="n">
-        <v>585.19</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" t="s">
-        <v>272</v>
-      </c>
-      <c r="C130" t="n">
-        <v>7231.0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>579.0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>584.65</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" t="s">
-        <v>273</v>
-      </c>
-      <c r="C131" t="n">
-        <v>7596.0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>579.0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>584.65</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>134</v>
-      </c>
-      <c r="B132" t="s">
-        <v>274</v>
-      </c>
-      <c r="C132" t="n">
-        <v>8036.0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>579.0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>584.65</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>135</v>
-      </c>
-      <c r="B133" t="s">
-        <v>275</v>
-      </c>
-      <c r="C133" t="n">
-        <v>8482.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>577.84</v>
-      </c>
-      <c r="E133" t="n">
-        <v>584.55</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134" t="s">
-        <v>276</v>
-      </c>
-      <c r="C134" t="n">
-        <v>8986.0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>577.5</v>
-      </c>
-      <c r="E134" t="n">
-        <v>583.46</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135" t="s">
-        <v>276</v>
-      </c>
-      <c r="C135" t="n">
-        <v>8986.0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>577.5</v>
-      </c>
-      <c r="E135" t="n">
-        <v>583.46</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136" t="s">
-        <v>277</v>
-      </c>
-      <c r="C136" t="n">
-        <v>9546.0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>578.74</v>
-      </c>
-      <c r="E136" t="n">
-        <v>582.86</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>139</v>
-      </c>
-      <c r="B137" t="s">
-        <v>278</v>
-      </c>
-      <c r="C137" t="n">
-        <v>9969.0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>578.91</v>
-      </c>
-      <c r="E137" t="n">
-        <v>584.16</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138" t="s">
-        <v>279</v>
-      </c>
-      <c r="C138" t="n">
-        <v>10551.0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>578.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>584.52</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" t="s">
-        <v>280</v>
-      </c>
-      <c r="C139" t="n">
-        <v>11114.0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>578.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>584.52</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>142</v>
-      </c>
-      <c r="B140" t="s">
-        <v>280</v>
-      </c>
-      <c r="C140" t="n">
-        <v>11114.0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>578.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>584.52</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" t="s">
-        <v>281</v>
-      </c>
-      <c r="C141" t="n">
-        <v>11534.0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>578.7</v>
-      </c>
-      <c r="E141" t="n">
-        <v>584.52</v>
       </c>
     </row>
   </sheetData>

--- a/RStudio/First examples/Project/BaseDatosCovid.xlsx
+++ b/RStudio/First examples/Project/BaseDatosCovid.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t>Fecha</t>
   </si>
@@ -530,6 +530,33 @@
     <t>168</t>
   </si>
   <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
     <t>2020/03/05</t>
   </si>
   <si>
@@ -1032,6 +1059,33 @@
   </si>
   <si>
     <t>2020/08/19</t>
+  </si>
+  <si>
+    <t>2020/08/20</t>
+  </si>
+  <si>
+    <t>2020/08/21</t>
+  </si>
+  <si>
+    <t>2020/08/22</t>
+  </si>
+  <si>
+    <t>2020/08/23</t>
+  </si>
+  <si>
+    <t>2020/08/24</t>
+  </si>
+  <si>
+    <t>2020/08/25</t>
+  </si>
+  <si>
+    <t>2020/08/26</t>
+  </si>
+  <si>
+    <t>2020/08/27</t>
+  </si>
+  <si>
+    <t>2020/08/28</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -1119,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1136,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1153,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -1170,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -1187,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -1204,7 +1258,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C8" t="n">
         <v>13.0</v>
@@ -1221,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C9" t="n">
         <v>22.0</v>
@@ -1238,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C10" t="n">
         <v>23.0</v>
@@ -1255,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C11" t="n">
         <v>26.0</v>
@@ -1272,7 +1326,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C12" t="n">
         <v>27.0</v>
@@ -1289,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C13" t="n">
         <v>35.0</v>
@@ -1306,7 +1360,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C14" t="n">
         <v>41.0</v>
@@ -1323,7 +1377,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C15" t="n">
         <v>50.0</v>
@@ -1340,7 +1394,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C16" t="n">
         <v>69.0</v>
@@ -1357,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C17" t="n">
         <v>89.0</v>
@@ -1374,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C18" t="n">
         <v>117.0</v>
@@ -1391,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C19" t="n">
         <v>134.0</v>
@@ -1408,7 +1462,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C20" t="n">
         <v>158.0</v>
@@ -1425,7 +1479,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C21" t="n">
         <v>177.0</v>
@@ -1442,7 +1496,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C22" t="n">
         <v>201.0</v>
@@ -1459,7 +1513,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C23" t="n">
         <v>231.0</v>
@@ -1476,7 +1530,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C24" t="n">
         <v>263.0</v>
@@ -1493,7 +1547,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C25" t="n">
         <v>295.0</v>
@@ -1510,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C26" t="n">
         <v>314.0</v>
@@ -1527,7 +1581,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C27" t="n">
         <v>330.0</v>
@@ -1544,7 +1598,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C28" t="n">
         <v>347.0</v>
@@ -1561,7 +1615,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C29" t="n">
         <v>375.0</v>
@@ -1578,7 +1632,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C30" t="n">
         <v>396.0</v>
@@ -1595,7 +1649,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C31" t="n">
         <v>416.0</v>
@@ -1612,7 +1666,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C32" t="n">
         <v>435.0</v>
@@ -1629,7 +1683,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C33" t="n">
         <v>454.0</v>
@@ -1646,7 +1700,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C34" t="n">
         <v>467.0</v>
@@ -1663,7 +1717,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C35" t="n">
         <v>483.0</v>
@@ -1680,7 +1734,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C36" t="n">
         <v>502.0</v>
@@ -1697,7 +1751,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C37" t="n">
         <v>539.0</v>
@@ -1714,7 +1768,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C38" t="n">
         <v>558.0</v>
@@ -1731,7 +1785,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C39" t="n">
         <v>577.0</v>
@@ -1748,7 +1802,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C40" t="n">
         <v>595.0</v>
@@ -1765,7 +1819,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C41" t="n">
         <v>612.0</v>
@@ -1782,7 +1836,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C42" t="n">
         <v>618.0</v>
@@ -1799,7 +1853,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C43" t="n">
         <v>626.0</v>
@@ -1816,7 +1870,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C44" t="n">
         <v>642.0</v>
@@ -1833,7 +1887,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C45" t="n">
         <v>649.0</v>
@@ -1850,7 +1904,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C46" t="n">
         <v>655.0</v>
@@ -1867,7 +1921,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C47" t="n">
         <v>660.0</v>
@@ -1884,7 +1938,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C48" t="n">
         <v>662.0</v>
@@ -1901,7 +1955,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C49" t="n">
         <v>669.0</v>
@@ -1918,7 +1972,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C50" t="n">
         <v>681.0</v>
@@ -1935,7 +1989,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C51" t="n">
         <v>686.0</v>
@@ -1952,7 +2006,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C52" t="n">
         <v>687.0</v>
@@ -1969,7 +2023,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C53" t="n">
         <v>693.0</v>
@@ -1986,7 +2040,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C54" t="n">
         <v>695.0</v>
@@ -2003,7 +2057,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C55" t="n">
         <v>697.0</v>
@@ -2020,7 +2074,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C56" t="n">
         <v>705.0</v>
@@ -2037,7 +2091,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C57" t="n">
         <v>713.0</v>
@@ -2054,7 +2108,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C58" t="n">
         <v>719.0</v>
@@ -2071,7 +2125,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C59" t="n">
         <v>725.0</v>
@@ -2088,7 +2142,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C60" t="n">
         <v>733.0</v>
@@ -2105,7 +2159,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C61" t="n">
         <v>739.0</v>
@@ -2122,7 +2176,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C62" t="n">
         <v>742.0</v>
@@ -2139,7 +2193,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C63" t="n">
         <v>755.0</v>
@@ -2156,7 +2210,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C64" t="n">
         <v>761.0</v>
@@ -2173,7 +2227,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C65" t="n">
         <v>765.0</v>
@@ -2190,7 +2244,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C66" t="n">
         <v>773.0</v>
@@ -2207,7 +2261,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C67" t="n">
         <v>780.0</v>
@@ -2224,7 +2278,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C68" t="n">
         <v>792.0</v>
@@ -2241,7 +2295,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C69" t="n">
         <v>801.0</v>
@@ -2258,7 +2312,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C70" t="n">
         <v>804.0</v>
@@ -2275,7 +2329,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C71" t="n">
         <v>815.0</v>
@@ -2292,7 +2346,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C72" t="n">
         <v>830.0</v>
@@ -2309,7 +2363,7 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C73" t="n">
         <v>843.0</v>
@@ -2326,7 +2380,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C74" t="n">
         <v>853.0</v>
@@ -2343,7 +2397,7 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C75" t="n">
         <v>863.0</v>
@@ -2360,7 +2414,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C76" t="n">
         <v>866.0</v>
@@ -2377,7 +2431,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C77" t="n">
         <v>882.0</v>
@@ -2394,7 +2448,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C78" t="n">
         <v>897.0</v>
@@ -2411,7 +2465,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C79" t="n">
         <v>903.0</v>
@@ -2428,7 +2482,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C80" t="n">
         <v>911.0</v>
@@ -2445,7 +2499,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C81" t="n">
         <v>918.0</v>
@@ -2462,7 +2516,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C82" t="n">
         <v>930.0</v>
@@ -2479,7 +2533,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C83" t="n">
         <v>951.0</v>
@@ -2496,7 +2550,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C84" t="n">
         <v>956.0</v>
@@ -2513,7 +2567,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C85" t="n">
         <v>984.0</v>
@@ -2530,7 +2584,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C86" t="n">
         <v>1000.0</v>
@@ -2547,7 +2601,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C87" t="n">
         <v>1022.0</v>
@@ -2564,7 +2618,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C88" t="n">
         <v>1047.0</v>
@@ -2581,7 +2635,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C89" t="n">
         <v>1056.0</v>
@@ -2598,7 +2652,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C90" t="n">
         <v>1084.0</v>
@@ -2615,7 +2669,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C91" t="n">
         <v>1105.0</v>
@@ -2632,7 +2686,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C92" t="n">
         <v>1157.0</v>
@@ -2649,7 +2703,7 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C93" t="n">
         <v>1194.0</v>
@@ -2666,7 +2720,7 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C94" t="n">
         <v>1228.0</v>
@@ -2683,7 +2737,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C95" t="n">
         <v>1263.0</v>
@@ -2700,7 +2754,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C96" t="n">
         <v>1318.0</v>
@@ -2717,7 +2771,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C97" t="n">
         <v>1342.0</v>
@@ -2734,7 +2788,7 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C98" t="n">
         <v>1375.0</v>
@@ -2751,7 +2805,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C99" t="n">
         <v>1461.0</v>
@@ -2768,7 +2822,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C100" t="n">
         <v>1538.0</v>
@@ -2785,7 +2839,7 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C101" t="n">
         <v>1612.0</v>
@@ -2802,7 +2856,7 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C102" t="n">
         <v>1662.0</v>
@@ -2819,7 +2873,7 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C103" t="n">
         <v>1715.0</v>
@@ -2836,7 +2890,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C104" t="n">
         <v>1744.0</v>
@@ -2853,7 +2907,7 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C105" t="n">
         <v>1796.0</v>
@@ -2870,7 +2924,7 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C106" t="n">
         <v>1871.0</v>
@@ -2887,7 +2941,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C107" t="n">
         <v>1939.0</v>
@@ -2904,7 +2958,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C108" t="n">
         <v>2058.0</v>
@@ -2921,7 +2975,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C109" t="n">
         <v>2127.0</v>
@@ -2938,7 +2992,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C110" t="n">
         <v>2213.0</v>
@@ -2955,7 +3009,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C111" t="n">
         <v>2277.0</v>
@@ -2972,7 +3026,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C112" t="n">
         <v>2368.0</v>
@@ -2989,7 +3043,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C113" t="n">
         <v>2515.0</v>
@@ -3006,7 +3060,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C114" t="n">
         <v>2684.0</v>
@@ -3023,7 +3077,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C115" t="n">
         <v>2836.0</v>
@@ -3040,7 +3094,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C116" t="n">
         <v>2979.0</v>
@@ -3057,7 +3111,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C117" t="n">
         <v>3130.0</v>
@@ -3074,7 +3128,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C118" t="n">
         <v>3269.0</v>
@@ -3091,7 +3145,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C119" t="n">
         <v>3459.0</v>
@@ -3108,7 +3162,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C120" t="n">
         <v>3753.0</v>
@@ -3125,7 +3179,7 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C121" t="n">
         <v>4023.0</v>
@@ -3142,7 +3196,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C122" t="n">
         <v>4311.0</v>
@@ -3159,7 +3213,7 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C123" t="n">
         <v>4621.0</v>
@@ -3176,7 +3230,7 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C124" t="n">
         <v>4996.0</v>
@@ -3193,7 +3247,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C125" t="n">
         <v>5241.0</v>
@@ -3210,7 +3264,7 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C126" t="n">
         <v>5486.0</v>
@@ -3227,7 +3281,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C127" t="n">
         <v>5836.0</v>
@@ -3244,7 +3298,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C128" t="n">
         <v>6485.0</v>
@@ -3261,7 +3315,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C129" t="n">
         <v>6845.0</v>
@@ -3278,7 +3332,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C130" t="n">
         <v>7231.0</v>
@@ -3295,7 +3349,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C131" t="n">
         <v>7596.0</v>
@@ -3312,7 +3366,7 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C132" t="n">
         <v>8036.0</v>
@@ -3329,7 +3383,7 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C133" t="n">
         <v>8482.0</v>
@@ -3346,7 +3400,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C134" t="n">
         <v>8986.0</v>
@@ -3363,7 +3417,7 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C135" t="n">
         <v>9546.0</v>
@@ -3380,7 +3434,7 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C136" t="n">
         <v>9969.0</v>
@@ -3397,7 +3451,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C137" t="n">
         <v>10551.0</v>
@@ -3414,7 +3468,7 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C138" t="n">
         <v>11114.0</v>
@@ -3431,7 +3485,7 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C139" t="n">
         <v>11534.0</v>
@@ -3448,7 +3502,7 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C140" t="n">
         <v>11811.0</v>
@@ -3465,7 +3519,7 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C141" t="n">
         <v>12361.0</v>
@@ -3482,7 +3536,7 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C142" t="n">
         <v>13129.0</v>
@@ -3499,7 +3553,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C143" t="n">
         <v>13669.0</v>
@@ -3516,7 +3570,7 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C144" t="n">
         <v>14600.0</v>
@@ -3533,7 +3587,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C145" t="n">
         <v>15229.0</v>
@@ -3550,7 +3604,7 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C146" t="n">
         <v>15841.0</v>
@@ -3567,7 +3621,7 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C147" t="n">
         <v>16344.0</v>
@@ -3584,7 +3638,7 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C148" t="n">
         <v>16800.0</v>
@@ -3601,7 +3655,7 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C149" t="n">
         <v>17290.0</v>
@@ -3618,7 +3672,7 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C150" t="n">
         <v>17820.0</v>
@@ -3635,7 +3689,7 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C151" t="n">
         <v>18187.0</v>
@@ -3652,7 +3706,7 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C152" t="n">
         <v>18975.0</v>
@@ -3669,7 +3723,7 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C153" t="n">
         <v>19402.0</v>
@@ -3686,7 +3740,7 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C154" t="n">
         <v>19837.0</v>
@@ -3703,7 +3757,7 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C155" t="n">
         <v>20417.0</v>
@@ -3720,7 +3774,7 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C156" t="n">
         <v>21070.0</v>
@@ -3737,7 +3791,7 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C157" t="n">
         <v>22081.0</v>
@@ -3754,7 +3808,7 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C158" t="n">
         <v>22802.0</v>
@@ -3771,7 +3825,7 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C159" t="n">
         <v>23286.0</v>
@@ -3788,7 +3842,7 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C160" t="n">
         <v>23872.0</v>
@@ -3805,7 +3859,7 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C161" t="n">
         <v>24508.0</v>
@@ -3822,7 +3876,7 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C162" t="n">
         <v>25057.0</v>
@@ -3839,7 +3893,7 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C163" t="n">
         <v>26129.0</v>
@@ -3856,7 +3910,7 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C164" t="n">
         <v>26931.0</v>
@@ -3873,7 +3927,7 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C165" t="n">
         <v>27737.0</v>
@@ -3890,7 +3944,7 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C166" t="n">
         <v>28465.0</v>
@@ -3907,7 +3961,7 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C167" t="n">
         <v>29084.0</v>
@@ -3924,7 +3978,7 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C168" t="n">
         <v>29643.0</v>
@@ -3941,7 +3995,7 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C169" t="n">
         <v>30409.0</v>
@@ -3951,6 +4005,159 @@
       </c>
       <c r="E169" t="n">
         <v>597.97</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" t="n">
+        <v>31075.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>591.69</v>
+      </c>
+      <c r="E170" t="n">
+        <v>597.82</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" t="n">
+        <v>32134.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>588.34</v>
+      </c>
+      <c r="E171" t="n">
+        <v>596.42</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" t="n">
+        <v>33084.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>588.38</v>
+      </c>
+      <c r="E172" t="n">
+        <v>595.58</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>352</v>
+      </c>
+      <c r="C173" t="n">
+        <v>33820.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>588.38</v>
+      </c>
+      <c r="E173" t="n">
+        <v>595.58</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>353</v>
+      </c>
+      <c r="C174" t="n">
+        <v>34463.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>588.38</v>
+      </c>
+      <c r="E174" t="n">
+        <v>595.58</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175" t="n">
+        <v>35305.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>588.04</v>
+      </c>
+      <c r="E175" t="n">
+        <v>596.93</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>355</v>
+      </c>
+      <c r="C176" t="n">
+        <v>36307.0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>591.52</v>
+      </c>
+      <c r="E176" t="n">
+        <v>597.21</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" t="n">
+        <v>37292.0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>591.61</v>
+      </c>
+      <c r="E177" t="n">
+        <v>598.31</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" t="n">
+        <v>38485.0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>591.43</v>
+      </c>
+      <c r="E178" t="n">
+        <v>597.66</v>
       </c>
     </row>
   </sheetData>
